--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6CB72-2F8C-0642-8218-D4DEBF368C58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62F8E3-0E14-5A48-9C7E-84BFB719AA26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="磁盘" sheetId="6" r:id="rId1"/>
+    <sheet name="物理内存" sheetId="1" r:id="rId2"/>
+    <sheet name="虚拟内存" sheetId="4" r:id="rId3"/>
+    <sheet name="内核虚拟地址映射" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,20 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>low memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>32 bit memory mapped devices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Extended Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,12 +58,6 @@
     <t>0x000A0000 (640KB)</t>
   </si>
   <si>
-    <t>0x000C0000 (768KB)</t>
-  </si>
-  <si>
-    <t>depends on amount of RAM</t>
-  </si>
-  <si>
     <t>0xFFFFFFFF (4GB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +79,6 @@
   </si>
   <si>
     <t>384KB，被保留作为非易失内存供显示器等硬件使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,35 +99,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extended memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base memory,可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO hole，不可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extmem，可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOPHYSMEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory-mapped I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.
+.
+.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMIOLIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSTKGAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Memory (*) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSTKSIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU1's Kernel Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTSIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULIM, MMIOBASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTPHYSMEM</t>
+  </si>
+  <si>
+    <t>0xF0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO space
+(IO hole)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused if pc has more than 2G PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Memory
+conventional memory
+base memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFE000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSTOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unused if PHYSTOP &lt; 2GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xefc00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Remapped 
+Physical Memory </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KERNBASE,   KSTACKTOP</t>
+  </si>
+  <si>
+    <t>0x000C0000 (768KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 RAM 确定， QEMU 默认是128MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scratch space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELFHDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,8 +272,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -185,18 +297,11 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线 (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线 (正文)"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,12 +317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,28 +398,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -331,90 +445,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,6 +682,2497 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>磁盘示意图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="57"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="58"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="59"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="60"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5F1C-9049-9003-CEE06653C415}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="61"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="62"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="63"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>磁盘!$A$1:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F1C-9049-9003-CEE06653C415}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73377A0-9C8B-9D4A-9EB3-31B9B76C60BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.074</cdr:x>
+      <cdr:y>0.21658</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11922</cdr:x>
+      <cdr:y>0.32149</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="直线连接符 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A18CFF0-751F-684D-A3CE-689D82710430}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="457200" y="812800"/>
+          <a:ext cx="279400" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02976</cdr:x>
+      <cdr:y>0.1618</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.13156</cdr:x>
+      <cdr:y>0.25729</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文本框 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161B6AFD-73C0-F649-8A41-6C910C3B6765}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="241300" y="774700"/>
+          <a:ext cx="825500" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>512byte</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,240 +3471,762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5D7E8F-BA9B-2248-8824-6262FF8E1BA1}">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3273B1F-55FC-0C46-8AAD-07273CF9C7C2}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="17" customHeight="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="149" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
+      <c r="A4" s="50"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="48" customHeight="1">
+      <c r="A5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="53" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="44" customHeight="1">
+      <c r="A8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="55" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="86" customHeight="1">
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="117" customHeight="1">
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="176" customHeight="1">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="95" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="57" customHeight="1">
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="13" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="70" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="59" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="C2:F6"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E7:E14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D7:D12"/>
+  <mergeCells count="11">
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E2:H5"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE481F-6EAD-7F4C-8116-6BCD7DE697D9}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="101" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12" customHeight="1">
+      <c r="A1" s="23"/>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="55" customHeight="1">
+      <c r="B2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" ht="78" customHeight="1">
+      <c r="C3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4" ht="78" customHeight="1">
+      <c r="B4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="78" customHeight="1">
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:4" ht="63" customHeight="1">
+      <c r="C6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="41" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="41" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="101" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" ht="101" customHeight="1">
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="26" customHeight="1">
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="101" customHeight="1">
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13" customHeight="1">
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="59" customHeight="1">
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13" customHeight="1">
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71CB82E-DA6B-6A44-9C86-DBF5A7F56F27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62F8E3-0E14-5A48-9C7E-84BFB719AA26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29723A4D-4849-6C4F-9D3A-C4F19376D4D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="磁盘" sheetId="6" r:id="rId1"/>
     <sheet name="物理内存" sheetId="1" r:id="rId2"/>
     <sheet name="虚拟内存" sheetId="4" r:id="rId3"/>
-    <sheet name="内核虚拟地址映射" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,22 +31,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">first instruction.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>jump toCS=$0xf000 IP = 0xe05b =  0xfe05b</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
-  <si>
-    <t>32 bit memory mapped devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extended Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>BIOS ROM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16-bit devices, expansion ROMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,10 +114,6 @@
   <si>
     <t>Low Memory
 conventional memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,16 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unused if pc has more than 2G PA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low Memory
-conventional memory
-base memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兼容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,19 +231,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由 RAM 确定， QEMU 默认是128MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scratch space</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00010000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ELFHDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x000FFFF0 : ljmp $0xf000,$0xe05b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00400000(4MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x8000000  由 RAM 确定， QEMU 默认是128MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFE000000(4064MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused if pc has more than 2G PA
+.
+.
+.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">extended memory </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00010000(64KB) ELF 内核文件加载到物理地址的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Memory/
+conventional memory/
+base memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel elf file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00007c00(31KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab 1 内核用物理地址（只读）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 bit memory mapped devices
+(for recent CPU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab 1 内核虚拟地址(4MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-bit devices, BIOS expansion ROMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGA Display,etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x000A0000 (640KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,8 +386,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,6 +498,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,173 +608,197 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,6 +952,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -839,6 +977,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -859,6 +1002,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -879,6 +1027,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -899,6 +1052,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -919,6 +1077,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -941,6 +1104,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -963,6 +1131,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -985,6 +1158,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1007,6 +1185,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1029,6 +1212,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1051,6 +1239,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1074,6 +1267,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1097,6 +1295,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1120,6 +1323,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1143,6 +1351,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1166,6 +1379,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1189,6 +1407,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1211,6 +1434,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1233,6 +1461,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1255,6 +1488,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1277,6 +1515,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1299,6 +1542,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1321,6 +1569,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1344,6 +1597,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1367,6 +1625,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1390,6 +1653,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1413,6 +1681,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1436,6 +1709,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -1459,6 +1737,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -1481,6 +1764,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -1503,6 +1791,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -1525,6 +1818,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -1547,6 +1845,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -1569,6 +1872,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -1591,6 +1899,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -1614,6 +1927,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -1637,6 +1955,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -1660,6 +1983,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -1683,6 +2011,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -1706,6 +2039,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -1729,6 +2067,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -1751,6 +2094,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -1773,6 +2121,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
@@ -1795,6 +2148,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
@@ -1817,6 +2175,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
@@ -1839,6 +2202,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
@@ -1861,6 +2229,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
@@ -1884,6 +2257,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="49"/>
@@ -1907,6 +2285,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="50"/>
@@ -1930,6 +2313,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="51"/>
@@ -1953,6 +2341,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="52"/>
@@ -1976,6 +2369,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="53"/>
@@ -1999,6 +2397,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="54"/>
@@ -2019,6 +2422,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="55"/>
@@ -2039,6 +2447,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="56"/>
@@ -2059,6 +2472,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
@@ -2079,6 +2497,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="58"/>
@@ -2099,6 +2522,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="59"/>
@@ -2119,6 +2547,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="60"/>
@@ -2168,6 +2601,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="62"/>
@@ -2190,6 +2628,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="63"/>
@@ -2212,6 +2655,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-493E-9A46-8FB1-2DA598462A62}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -3175,6 +3623,111 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F921547-D620-5E44-A430-5718B4D44CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10803467" y="1642533"/>
+          <a:ext cx="1913466" cy="5046134"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB201E4E-A690-D040-966B-189E943A0E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10803467" y="3014133"/>
+          <a:ext cx="1947333" cy="7399867"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3808,218 +4361,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3273B1F-55FC-0C46-8AAD-07273CF9C7C2}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3273B1F-55FC-0C46-8AAD-07273CF9C7C2}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="24.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="42" customHeight="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="41" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="41" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="L3" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="110" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="K4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="108" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="181" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" ht="49" customHeight="1">
+      <c r="A7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="149" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="35" customHeight="1">
-      <c r="A3" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" ht="48" customHeight="1">
-      <c r="A5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="D8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="53" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="53" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" ht="40" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="31" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" ht="33" customHeight="1">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="40" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="44" customHeight="1">
-      <c r="A8" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="29" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="64" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="26" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="55" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="5"/>
+      <c r="C15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E9:F11"/>
+  <mergeCells count="15">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="H6:H11"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E2:H5"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E2:H7"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="I7:I15"/>
+    <mergeCell ref="C3:D5"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="H8:H15"/>
+    <mergeCell ref="E12:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4027,178 +4671,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE481F-6EAD-7F4C-8116-6BCD7DE697D9}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="101" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="101" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" ht="55" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:4" ht="78" customHeight="1">
+      <c r="C3" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:4" ht="78" customHeight="1">
+      <c r="B4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="78" customHeight="1">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="42"/>
-    </row>
-    <row r="3" spans="1:4" ht="78" customHeight="1">
-      <c r="C3" s="44" t="s">
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="1:4" ht="63" customHeight="1">
+      <c r="C6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:4" ht="78" customHeight="1">
-      <c r="B4" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="78" customHeight="1">
-      <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1">
-      <c r="C6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="45"/>
-    </row>
-    <row r="7" spans="1:4" ht="63" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1">
-      <c r="A8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="A8" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="41" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="41" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="101" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="101" customHeight="1">
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="26" customHeight="1">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="41" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="101" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="40"/>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="1:4" ht="101" customHeight="1">
-      <c r="C14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="26" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="16" spans="1:4" ht="101" customHeight="1">
-      <c r="C16" s="7" t="s">
-        <v>19</v>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13" customHeight="1">
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="59" customHeight="1">
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13" customHeight="1">
+      <c r="B20" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="59" customHeight="1">
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4214,19 +4858,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71CB82E-DA6B-6A44-9C86-DBF5A7F56F27}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29723A4D-4849-6C4F-9D3A-C4F19376D4D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6E863-EBAD-874C-B7D0-99A8F5ACBE36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="磁盘" sheetId="6" r:id="rId1"/>
     <sheet name="物理内存" sheetId="1" r:id="rId2"/>
-    <sheet name="虚拟内存" sheetId="4" r:id="rId3"/>
+    <sheet name="kernel LMA" sheetId="7" r:id="rId3"/>
+    <sheet name="虚拟内存" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">物理内存!$A$1:$N$32</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
       <text>
         <r>
           <rPr>
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>BIOS ROM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,11 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IO space
-(IO hole)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兼容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,23 +230,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scratch space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELFHDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x000FFFF0 : ljmp $0xf000,$0xe05b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x00400000(4MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0x8000000  由 RAM 确定， QEMU 默认是128MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,33 +257,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00010000(64KB) ELF 内核文件加载到物理地址的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low Memory/
 conventional memory/
 base memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kernel elf file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boot.S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00007c00(31KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lab 1 内核用物理地址（只读）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -326,6 +293,223 @@
   </si>
   <si>
     <t>0x000A0000 (640KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KERNBASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF0000000(3840MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0100000(3841MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x08000000  由 RAM 确定， QEMU 默认是128MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.rodata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.stabstr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.stab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00117560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010d000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010af59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00104eb0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00103f14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bss
+Block Started by Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00103f11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010AF59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00104EAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010CF22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00117544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00117BB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00115000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ELFHDR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x00010000(64KB) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00004f14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00005eb0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000bf59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000e000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10008560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00008000(512byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00007dff(31.5KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot loader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO hole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstacktop 0x00115000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel heap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,8 +575,40 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +741,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -585,11 +831,13 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -598,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,56 +886,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,71 +1108,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -767,26 +1126,32 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3628,14 +3993,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3651,12 +4016,20 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10803467" y="1642533"/>
-          <a:ext cx="1913466" cy="5046134"/>
+          <a:off x="11463867" y="1591734"/>
+          <a:ext cx="1896533" cy="3776133"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3678,15 +4051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1879600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:colOff>2419</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>33867</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220133</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2129398</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3701,12 +4074,366 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10803467" y="3014133"/>
-          <a:ext cx="1947333" cy="7399867"/>
+          <a:off x="10926329" y="2310827"/>
+          <a:ext cx="2126979" cy="7219458"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>620369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1141488</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>215446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6EB7C0-E968-AF45-B213-FAF605B23AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11169437" y="6872095"/>
+          <a:ext cx="4652646" cy="4773351"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直线连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46C0859-2D01-1F45-93D1-1EEB2787FC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11163301" y="6261100"/>
+          <a:ext cx="4648199" cy="25401"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1386076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>314086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1120588</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>522941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9FF33A-FFE4-4242-A2DE-046E5BC01665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11150054" y="9279194"/>
+          <a:ext cx="4650642" cy="2912725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1387395</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直线连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44004E7F-74FE-C64D-AC90-C026AC2B1EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11184538" y="9007395"/>
+          <a:ext cx="4674455" cy="2572017"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10672</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1131261</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>426890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955D9C44-5C6B-9C4F-AC83-4D50C1440BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11205882" y="9690420"/>
+          <a:ext cx="4642438" cy="2838823"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1392904</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直线连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25A7A82-F247-9F44-B814-C518C9A0E916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11156882" y="9443065"/>
+          <a:ext cx="4663495" cy="2785806"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4362,316 +5089,693 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3273B1F-55FC-0C46-8AAD-07273CF9C7C2}">
-  <dimension ref="A1:L15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="229" workbookViewId="0">
+      <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="34.6640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="28" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="34" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" style="34" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:13" ht="42" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="58" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="41" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="32" t="s">
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="41" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="K3" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="41" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="90"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="119" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="86"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" ht="49" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="68"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="K12" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="94"/>
+      <c r="M12" s="69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="34"/>
+      <c r="K13" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="68"/>
+    </row>
+    <row r="14" spans="1:13" ht="40" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="83"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="68"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="83"/>
+      <c r="I15" s="34"/>
+      <c r="K15" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="96"/>
+      <c r="M15" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="29" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="41" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="47" t="s">
+      <c r="H16" s="82"/>
+      <c r="I16" s="34"/>
+      <c r="K16" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="68"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="29" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="34"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="68"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="19" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="68"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="L3" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="110" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="K4" s="42" t="s">
+      <c r="K20" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="99"/>
+      <c r="M20" s="69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="34"/>
+      <c r="K21" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="68"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="K22" s="53"/>
+      <c r="L22" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="68"/>
+    </row>
+    <row r="23" spans="1:13" ht="17">
+      <c r="K23" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="51"/>
+      <c r="M23" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="K24" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="68"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="K25" s="53"/>
+      <c r="L25" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="68"/>
+    </row>
+    <row r="26" spans="1:13" ht="17">
+      <c r="K26" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="97"/>
+      <c r="M26" s="69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="K27" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="68"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="K28" s="53"/>
+      <c r="L28" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="68"/>
+    </row>
+    <row r="29" spans="1:13" ht="17">
+      <c r="K29" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="181" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:12" ht="49" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" ht="40" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="L29" s="96"/>
+      <c r="M29" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="29" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="64" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="26" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="40"/>
+    </row>
+    <row r="30" spans="1:13" ht="43" customHeight="1">
+      <c r="K30" s="63"/>
+      <c r="L30" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="34" customHeight="1">
+      <c r="B31" s="32"/>
+      <c r="H31" s="49"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H7"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="I7:I15"/>
-    <mergeCell ref="C3:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="E12:F15"/>
+  <mergeCells count="22">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F1ADE1-FC94-7E4E-A083-86B990510FF2}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="52"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="50" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="95"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="1:4" ht="87" customHeight="1">
+      <c r="B5" s="96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="96"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="57"/>
+    </row>
+    <row r="8" spans="1:4" ht="77" customHeight="1">
+      <c r="B8" s="99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="99"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="57"/>
+    </row>
+    <row r="11" spans="1:4" ht="58" customHeight="1">
+      <c r="B11" s="98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="98"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="57"/>
+    </row>
+    <row r="14" spans="1:4" ht="51" customHeight="1">
+      <c r="B14" s="97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="97"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="57"/>
+    </row>
+    <row r="17" spans="1:2" ht="64" customHeight="1">
+      <c r="B17" s="96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="96"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="56">
+        <v>0</v>
+      </c>
+      <c r="B19" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE481F-6EAD-7F4C-8116-6BCD7DE697D9}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="101" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="101" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4684,65 +5788,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12" customHeight="1">
-      <c r="A1" s="18"/>
+      <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
     </row>
     <row r="2" spans="1:4" ht="55" customHeight="1">
-      <c r="B2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="105"/>
+    </row>
+    <row r="3" spans="1:4" ht="78" customHeight="1">
+      <c r="C3" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="66"/>
-    </row>
-    <row r="3" spans="1:4" ht="78" customHeight="1">
-      <c r="C3" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="103"/>
     </row>
     <row r="4" spans="1:4" ht="78" customHeight="1">
-      <c r="B4" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>36</v>
+      <c r="B4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="78" customHeight="1">
       <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="104"/>
+    </row>
+    <row r="6" spans="1:4" ht="63" customHeight="1">
+      <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="65"/>
-    </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1">
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="104"/>
     </row>
     <row r="7" spans="1:4" ht="63" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="65"/>
+      <c r="C7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="100" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -4754,7 +5858,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="41" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -4764,7 +5868,7 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -4774,7 +5878,7 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="41" customHeight="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
@@ -4784,24 +5888,24 @@
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="101" customHeight="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="101" customHeight="1">
       <c r="C14" s="11" t="s">
@@ -4828,7 +5932,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">

--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6E863-EBAD-874C-B7D0-99A8F5ACBE36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1339322-2992-5642-B005-F4C0A1849D5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="虚拟内存" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">物理内存!$A$1:$N$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">物理内存!$A$1:$P$34</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>BIOS ROM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>0x00100000 (1MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早期 PC 唯一能使用的640KB RAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,12 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Low Memory/
-conventional memory/
-base memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00007c00(31KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,18 +262,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xf0100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xf0400000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lab 1 内核虚拟地址(4MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16-bit devices, BIOS expansion ROMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xf0100000(3841MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +295,6 @@
   </si>
   <si>
     <t>0x00100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00001000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,23 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ELFHDR  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x00010000(64KB) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kernel code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,15 +395,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x10008560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00008000(512byte)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,15 +450,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bootstacktop 0x00115000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel heap</t>
+    <t>kernel stack ↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel heap ↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot stack↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00115000  bootstacktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00100000  (1MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00010000(64KB) ELFHDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf1000000 VMA =KERNELBASE+1MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bss
+Block Started by Symbol/
+uninitialized data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.data
+initialized data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00001000(4KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program Header 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000DF22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00018560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512byte</t>
+  </si>
+  <si>
+    <t>0KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab 1 内核虚拟地址空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry point 0x0010000c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf header    52 bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elf file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,8 +638,71 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,7 +861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,10 +938,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -846,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,218 +1056,278 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4110,14 +4274,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>620369</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>620370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1141488</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>215446</xdr:rowOff>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4132,8 +4296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11169437" y="6872095"/>
-          <a:ext cx="4652646" cy="4773351"/>
+          <a:off x="9262320" y="7795870"/>
+          <a:ext cx="4644180" cy="4294530"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4169,13 +4333,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>252730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4190,8 +4354,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11163301" y="6261100"/>
-          <a:ext cx="4648199" cy="25401"/>
+          <a:off x="9258301" y="7174230"/>
+          <a:ext cx="4648199" cy="27941"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4232,7 +4396,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1120588</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>522941</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4284,15 +4448,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1387395</xdr:colOff>
+      <xdr:colOff>1387396</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>21345</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4307,8 +4471,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11184538" y="9007395"/>
-          <a:ext cx="4674455" cy="2572017"/>
+          <a:off x="9248696" y="9385302"/>
+          <a:ext cx="4975304" cy="2946398"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4350,7 +4514,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1131261</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>426890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4399,15 +4563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1392904</xdr:colOff>
+      <xdr:colOff>1392905</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>6828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>13656</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4422,8 +4586,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11156882" y="9443065"/>
-          <a:ext cx="4663495" cy="2785806"/>
+          <a:off x="9254205" y="9950928"/>
+          <a:ext cx="4614195" cy="2634772"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4433,6 +4597,112 @@
             <a:srgbClr val="FFC000"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6324D6-07ED-514A-8DC3-15BCE7015D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9258300" y="2324100"/>
+          <a:ext cx="2108200" cy="4864100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3842A3B-3710-7F46-BBF0-3E9809647851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9258300" y="2540000"/>
+          <a:ext cx="2133600" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5092,10 +5362,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="229" workbookViewId="0">
-      <selection sqref="A1:N32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F7" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5107,523 +5377,611 @@
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="43" customWidth="1"/>
     <col min="9" max="9" width="28" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="34" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" style="34" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.33203125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="34" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42" customHeight="1">
+    <row r="1" spans="1:15" ht="42" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="3"/>
+      <c r="C1" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>90</v>
+      </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="58" customHeight="1">
+    <row r="2" spans="1:15" ht="58" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="41" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="K3" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="41" customHeight="1">
-      <c r="A4" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="88" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="74"/>
+      <c r="J3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="111"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="41" customHeight="1">
+      <c r="A4"/>
+      <c r="B4" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="112"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A5"/>
+      <c r="B5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="90"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" ht="119" customHeight="1">
+      <c r="J5" s="92"/>
+      <c r="K5" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="113"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="119" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="86"/>
+        <v>54</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="62"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="120" customHeight="1" thickBot="1">
       <c r="A7" s="24"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>41</v>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>40</v>
       </c>
       <c r="I7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="L7" s="34"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="36" customHeight="1" thickTop="1">
       <c r="A8" s="25"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="75" t="s">
-        <v>96</v>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1">
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="36" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="62" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" ht="49" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" ht="49" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="68"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="93" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="101"/>
+      <c r="L12" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="119"/>
+      <c r="O12" s="57"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="K12" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="83"/>
+      <c r="H13" s="75" t="s">
+        <v>86</v>
+      </c>
       <c r="I13" s="34"/>
-      <c r="K13" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="68"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1">
+      <c r="K13" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="118"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="83"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="68"/>
-    </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="K14" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="107"/>
+    </row>
+    <row r="15" spans="1:15" ht="40" customHeight="1">
+      <c r="A15" s="13"/>
       <c r="B15" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="83"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="75"/>
       <c r="I15" s="34"/>
-      <c r="K15" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="96"/>
-      <c r="M15" s="70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="29" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="82"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="119"/>
+      <c r="O15" s="107"/>
+    </row>
+    <row r="16" spans="1:15" ht="33" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="75"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="29" customHeight="1">
+      <c r="K16" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="118"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="34"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="68"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="K17" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="68"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="19" customHeight="1">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="104"/>
+      <c r="L18" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="119"/>
+      <c r="O18" s="107"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="68"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="104"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="107"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="40" t="s">
-        <v>94</v>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="99"/>
-      <c r="M20" s="69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="K20" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="116"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="89" t="s">
+        <v>89</v>
+      </c>
       <c r="I21" s="34"/>
-      <c r="K21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="68"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="K22" s="53"/>
-      <c r="L22" s="51" t="s">
+      <c r="K21" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="116"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="107"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="K22" s="104"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="119"/>
+      <c r="O22" s="107"/>
+    </row>
+    <row r="23" spans="1:15" ht="17">
+      <c r="K23" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="116"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="K24" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="116"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="107"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="K25" s="104"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="119"/>
+      <c r="O25" s="107"/>
+    </row>
+    <row r="26" spans="1:15" ht="17">
+      <c r="K26" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="68"/>
-    </row>
-    <row r="23" spans="1:13" ht="17">
-      <c r="K23" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="K24" s="60" t="s">
+      <c r="L26" s="116"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="K27" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="116"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="57"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="K28" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="116"/>
+      <c r="M28" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="119"/>
+      <c r="O28" s="57"/>
+    </row>
+    <row r="29" spans="1:15" ht="17">
+      <c r="K29" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="116"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="63" customFormat="1">
+      <c r="B30" s="32"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="123"/>
+    </row>
+    <row r="31" spans="1:15" s="63" customFormat="1">
+      <c r="B31" s="32"/>
+      <c r="L31" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="82"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="123"/>
+    </row>
+    <row r="32" spans="1:15" ht="23" customHeight="1" thickBot="1">
+      <c r="K32" s="55"/>
+      <c r="L32" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="120"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="2" customFormat="1" ht="17" customHeight="1" thickTop="1">
+      <c r="B33" s="32"/>
+      <c r="H33" s="43"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="79"/>
+      <c r="N33" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="56" spans="9:12" ht="48">
+      <c r="I56" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="68"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="K25" s="53"/>
-      <c r="L25" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="68"/>
-    </row>
-    <row r="26" spans="1:13" ht="17">
-      <c r="K26" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="97"/>
-      <c r="M26" s="69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="K27" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="68"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="K28" s="53"/>
-      <c r="L28" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="68"/>
-    </row>
-    <row r="29" spans="1:13" ht="17">
-      <c r="K29" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="96"/>
-      <c r="M29" s="69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="43" customHeight="1">
-      <c r="K30" s="63"/>
-      <c r="L30" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="34" customHeight="1">
-      <c r="B31" s="32"/>
-      <c r="H31" s="49"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" s="67"/>
+      <c r="L56" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+  <mergeCells count="28">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N11:N32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L18:L29"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F13:F21"/>
+    <mergeCell ref="C17:D21"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="E13:E21"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C2:F12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M28:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5643,119 +6001,119 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="52"/>
+    <col min="1" max="1" width="10.83203125" style="45"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>78</v>
+      <c r="A1" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="94" t="s">
-        <v>72</v>
+      <c r="B2" s="65" t="s">
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="81"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="49"/>
+    </row>
+    <row r="5" spans="1:4" ht="87" customHeight="1">
+      <c r="B5" s="66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="66"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="49"/>
+    </row>
+    <row r="8" spans="1:4" ht="77" customHeight="1">
+      <c r="B8" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="67"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="49"/>
+    </row>
+    <row r="11" spans="1:4" ht="58" customHeight="1">
+      <c r="B11" s="82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="82"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:4" ht="51" customHeight="1">
+      <c r="B14" s="68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="68"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="95"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="57"/>
-    </row>
-    <row r="5" spans="1:4" ht="87" customHeight="1">
-      <c r="B5" s="96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="96"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="57"/>
-    </row>
-    <row r="8" spans="1:4" ht="77" customHeight="1">
-      <c r="B8" s="99" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="99"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="57"/>
-    </row>
-    <row r="11" spans="1:4" ht="58" customHeight="1">
-      <c r="B11" s="98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="98"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="57"/>
-    </row>
-    <row r="14" spans="1:4" ht="51" customHeight="1">
-      <c r="B14" s="97" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="97"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="49"/>
     </row>
     <row r="17" spans="1:2" ht="64" customHeight="1">
-      <c r="B17" s="96" t="s">
-        <v>62</v>
+      <c r="B17" s="66" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="96"/>
+      <c r="A18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="66"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="56">
+      <c r="A19" s="48">
         <v>0</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5792,135 +6150,135 @@
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="55" customHeight="1">
       <c r="B2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="88"/>
+    </row>
+    <row r="3" spans="1:4" ht="78" customHeight="1">
+      <c r="C3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="105"/>
-    </row>
-    <row r="3" spans="1:4" ht="78" customHeight="1">
-      <c r="C3" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="103"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="1:4" ht="78" customHeight="1">
       <c r="B4" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="78" customHeight="1">
       <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="104"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:4" ht="63" customHeight="1">
       <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="104"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:4" ht="63" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="104"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1">
-      <c r="A8" s="100" t="s">
-        <v>22</v>
+      <c r="A8" s="83" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="41" customHeight="1">
-      <c r="A9" s="101"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1">
+      <c r="A10" s="84"/>
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="41" customHeight="1">
-      <c r="A11" s="101"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="101" customHeight="1">
-      <c r="A12" s="101"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="79"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="74"/>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="101" customHeight="1">
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="26" customHeight="1">
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="101" customHeight="1">
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13" customHeight="1">
@@ -5933,7 +6291,7 @@
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>2</v>
@@ -5941,7 +6299,7 @@
     </row>
     <row r="19" spans="1:3" ht="59" customHeight="1">
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13" customHeight="1">

--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180F8B5-8E5F-3B46-ABA2-9B30BC6D602C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47ADBA-88C2-FD4D-A2F9-04759B9BA0F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'lab2'!$A$2:$K$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -805,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -990,6 +989,11 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="27">
@@ -1266,7 +1270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1557,6 +1561,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1569,113 +1660,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2696,8 +2706,8 @@
   </sheetPr>
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2710,7 +2720,7 @@
     <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="2" style="31" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="22" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" style="1" customWidth="1"/>
@@ -2729,20 +2739,20 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="139" t="s">
         <v>97</v>
       </c>
       <c r="K1" s="3"/>
@@ -2752,30 +2762,30 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="110" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
       <c r="K3" s="31"/>
       <c r="L3" s="16" t="s">
         <v>73</v>
@@ -2794,11 +2804,11 @@
       <c r="B4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="110"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="36"/>
@@ -2820,11 +2830,11 @@
       <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="110"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="134"/>
       <c r="H5" s="94"/>
       <c r="I5" s="30"/>
       <c r="J5" s="37" t="s">
@@ -2850,11 +2860,11 @@
       <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="110"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="94"/>
       <c r="I6" s="30"/>
       <c r="L6" s="4"/>
@@ -2864,17 +2874,17 @@
     <row r="7" spans="1:19" s="2" customFormat="1" ht="120" customHeight="1" thickBot="1">
       <c r="A7" s="6"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="137"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
@@ -2892,18 +2902,18 @@
     <row r="8" spans="1:19" s="4" customFormat="1" ht="59" customHeight="1" thickTop="1">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="135" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="135"/>
+      <c r="I8" s="121"/>
       <c r="J8"/>
       <c r="K8" s="64"/>
-      <c r="L8" s="103" t="s">
+      <c r="L8" s="131" t="s">
         <v>76</v>
       </c>
       <c r="M8" s="31"/>
@@ -2912,14 +2922,14 @@
     <row r="9" spans="1:19" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="L9" s="103"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="L9" s="131"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="61" t="s">
@@ -2939,23 +2949,23 @@
     <row r="10" spans="1:19" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="103"/>
+      <c r="L10" s="131"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="115" t="s">
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="111" t="s">
         <v>68</v>
       </c>
       <c r="S10" s="12"/>
@@ -2963,75 +2973,75 @@
     <row r="11" spans="1:19" s="31" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="133" t="s">
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="133"/>
+      <c r="I11" s="120"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="103"/>
+      <c r="L11" s="131"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="P11" s="129" t="s">
+      <c r="P11" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="102" t="s">
+      <c r="Q11" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="R11" s="115"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" s="31" customFormat="1" ht="57" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="126" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="130" t="s">
+      <c r="J12" s="107" t="s">
         <v>110</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="103"/>
+      <c r="L12" s="131"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="115"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="1:19" s="31" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="132" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="134"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="108"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="103"/>
+      <c r="L13" s="131"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="115"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="111"/>
       <c r="S13" s="44" t="s">
         <v>63</v>
       </c>
@@ -3039,24 +3049,24 @@
     <row r="14" spans="1:19" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="105"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="103"/>
+      <c r="L14" s="131"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="129"/>
+      <c r="P14" s="106"/>
       <c r="Q14" s="88"/>
-      <c r="R14" s="115"/>
+      <c r="R14" s="111"/>
       <c r="S14" s="45"/>
     </row>
     <row r="15" spans="1:19" ht="29" customHeight="1">
@@ -3066,28 +3076,28 @@
       <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="131" t="s">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="131"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="13" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="103"/>
+      <c r="L15" s="131"/>
       <c r="O15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="129"/>
+      <c r="P15" s="106"/>
       <c r="Q15" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="R15" s="115"/>
+      <c r="R15" s="111"/>
       <c r="S15" s="46" t="s">
         <v>45</v>
       </c>
@@ -3097,24 +3107,24 @@
       <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="116" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="107" t="s">
+      <c r="H16" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="107"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="103"/>
+      <c r="L16" s="131"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="43" t="s">
@@ -3122,7 +3132,7 @@
       </c>
       <c r="P16" s="88"/>
       <c r="Q16" s="88"/>
-      <c r="R16" s="115"/>
+      <c r="R16" s="111"/>
       <c r="S16" s="51" t="s">
         <v>60</v>
       </c>
@@ -3132,26 +3142,26 @@
       <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="111"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="103"/>
+      <c r="L17" s="131"/>
       <c r="O17" s="42"/>
       <c r="P17" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="118" t="s">
+      <c r="Q17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="115"/>
+      <c r="R17" s="111"/>
       <c r="S17" s="45"/>
     </row>
     <row r="18" spans="1:19" ht="33" customHeight="1">
@@ -3161,24 +3171,24 @@
       <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="103"/>
+      <c r="L18" s="131"/>
       <c r="O18" s="43" t="s">
         <v>38</v>
       </c>
       <c r="P18" s="89"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="115"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="111"/>
       <c r="S18" s="44" t="s">
         <v>44</v>
       </c>
@@ -3186,18 +3196,18 @@
     <row r="19" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="101" t="s">
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="130" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="103"/>
+      <c r="L19" s="131"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
@@ -3205,49 +3215,49 @@
       <c r="Q19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="115"/>
+      <c r="R19" s="111"/>
       <c r="S19" s="45"/>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="109" t="s">
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="109"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="27" t="s">
         <v>55</v>
       </c>
       <c r="K20" s="65"/>
-      <c r="L20" s="103"/>
+      <c r="L20" s="131"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="42"/>
       <c r="P20" s="89"/>
       <c r="Q20" s="93"/>
-      <c r="R20" s="115"/>
+      <c r="R20" s="111"/>
       <c r="S20" s="45"/>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
       <c r="H21" s="32"/>
       <c r="I21" s="28"/>
       <c r="J21" s="27" t="s">
         <v>48</v>
       </c>
       <c r="K21" s="65"/>
-      <c r="L21" s="103"/>
+      <c r="L21" s="131"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="43" t="s">
@@ -3255,7 +3265,7 @@
       </c>
       <c r="P21" s="89"/>
       <c r="Q21" s="93"/>
-      <c r="R21" s="115"/>
+      <c r="R21" s="111"/>
       <c r="S21" s="44" t="s">
         <v>43</v>
       </c>
@@ -3263,44 +3273,44 @@
     <row r="22" spans="1:19" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="111" t="s">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="111"/>
+      <c r="I22" s="116"/>
       <c r="J22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="10"/>
-      <c r="L22" s="103"/>
+      <c r="L22" s="131"/>
       <c r="N22" s="31"/>
       <c r="O22" s="41" t="s">
         <v>39</v>
       </c>
       <c r="P22" s="89"/>
       <c r="Q22" s="88"/>
-      <c r="R22" s="115"/>
+      <c r="R22" s="111"/>
       <c r="S22" s="45"/>
     </row>
     <row r="23" spans="1:19" s="31" customFormat="1" ht="19" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="132" t="s">
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="113"/>
+      <c r="I23" s="115"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="103"/>
+      <c r="L23" s="131"/>
       <c r="M23" s="5" t="s">
         <v>75</v>
       </c>
@@ -3309,7 +3319,7 @@
       <c r="Q23" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="115"/>
+      <c r="R23" s="111"/>
       <c r="S23" s="45"/>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
@@ -3317,16 +3327,16 @@
       <c r="B24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="103"/>
+      <c r="L24" s="131"/>
       <c r="M24" s="5">
         <v>0</v>
       </c>
@@ -3335,7 +3345,7 @@
       </c>
       <c r="P24" s="89"/>
       <c r="Q24" s="90"/>
-      <c r="R24" s="115"/>
+      <c r="R24" s="111"/>
       <c r="S24" s="44" t="s">
         <v>42</v>
       </c>
@@ -3346,7 +3356,7 @@
       </c>
       <c r="P25" s="89"/>
       <c r="Q25" s="88"/>
-      <c r="R25" s="115"/>
+      <c r="R25" s="111"/>
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19">
@@ -3357,7 +3367,7 @@
       <c r="Q26" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="115"/>
+      <c r="R26" s="111"/>
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="17">
@@ -3366,7 +3376,7 @@
       </c>
       <c r="P27" s="89"/>
       <c r="Q27" s="91"/>
-      <c r="R27" s="115"/>
+      <c r="R27" s="111"/>
       <c r="S27" s="47" t="s">
         <v>58</v>
       </c>
@@ -3375,35 +3385,35 @@
       <c r="O28" s="31"/>
       <c r="P28" s="88"/>
       <c r="Q28" s="88"/>
-      <c r="R28" s="115"/>
+      <c r="R28" s="111"/>
       <c r="S28" s="53"/>
     </row>
     <row r="29" spans="1:19">
       <c r="O29" s="31"/>
-      <c r="P29" s="93" t="s">
+      <c r="P29" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="115"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="111"/>
       <c r="S29" s="53"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1">
       <c r="O30" s="25"/>
-      <c r="P30" s="117" t="s">
+      <c r="P30" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="116"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="17" thickTop="1">
       <c r="O31" s="25"/>
-      <c r="P31" s="111" t="s">
+      <c r="P31" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Q31" s="111"/>
+      <c r="Q31" s="116"/>
       <c r="R31" s="55" t="s">
         <v>64</v>
       </c>
@@ -3948,20 +3958,9 @@
       <c r="S84"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R10:R30"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="H8:I10"/>
-    <mergeCell ref="H7:I7"/>
+  <mergeCells count="31">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="P29:Q29"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P10:Q10"/>
@@ -3978,11 +3977,23 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R10:R30"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="H8:I10"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3995,8 +4006,8 @@
   </sheetPr>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="84" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="84" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4018,7 +4029,7 @@
       <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="109" t="s">
         <v>96</v>
       </c>
       <c r="C1" s="76" t="s">
@@ -4029,7 +4040,7 @@
       <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="85"/>
       <c r="D2" s="3"/>
     </row>
@@ -4037,11 +4048,11 @@
       <c r="A3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="41" customHeight="1">
       <c r="A4" s="71"/>
-      <c r="B4" s="106"/>
+      <c r="B4" s="113"/>
       <c r="E4" s="16" t="s">
         <v>73</v>
       </c>
@@ -4066,7 +4077,7 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="1:11" ht="16" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="102" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="58"/>
@@ -4081,7 +4092,7 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:11" ht="119" customHeight="1" thickBot="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="101" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="58"/>
@@ -4090,7 +4101,7 @@
     </row>
     <row r="8" spans="1:11" ht="120" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="121"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
@@ -4108,9 +4119,9 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="52" customHeight="1">
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="70"/>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="99" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="10"/>
@@ -4120,7 +4131,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1">
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A11" s="70"/>
       <c r="B11" s="29" t="s">
         <v>103</v>
@@ -4151,7 +4162,7 @@
     </row>
     <row r="13" spans="1:11" ht="12" customHeight="1">
       <c r="A13" s="70"/>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="110" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="81" t="s">
@@ -4165,7 +4176,7 @@
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1">
       <c r="A14" s="70"/>
-      <c r="B14" s="102"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="84" t="s">
         <v>99</v>
       </c>
@@ -4177,12 +4188,12 @@
     </row>
     <row r="15" spans="1:11" ht="136" customHeight="1">
       <c r="A15" s="70"/>
-      <c r="B15" s="102"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="82" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="100" t="s">
         <v>104</v>
       </c>
       <c r="I15"/>
@@ -4190,7 +4201,7 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" ht="37" customHeight="1">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="101" t="s">
         <v>107</v>
       </c>
       <c r="B16" s="68" t="s">
@@ -4205,7 +4216,7 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" ht="51" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="101" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="95" t="s">
@@ -4355,7 +4366,7 @@
     </row>
     <row r="46" spans="7:12">
       <c r="K46" s="39"/>
-      <c r="L46" s="102" t="s">
+      <c r="L46" s="110" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4363,7 +4374,7 @@
       <c r="K47" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="L47" s="102"/>
+      <c r="L47" s="110"/>
     </row>
     <row r="48" spans="7:12">
       <c r="K48" s="41" t="s">
@@ -4373,7 +4384,7 @@
     </row>
     <row r="49" spans="2:12">
       <c r="K49" s="42"/>
-      <c r="L49" s="103" t="s">
+      <c r="L49" s="131" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4388,7 +4399,7 @@
       <c r="K50" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="L50" s="104"/>
+      <c r="L50" s="136"/>
     </row>
     <row r="51" spans="2:12">
       <c r="B51"/>
@@ -4412,7 +4423,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="K52" s="42"/>
-      <c r="L52" s="118" t="s">
+      <c r="L52" s="126" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4425,7 +4436,7 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="K53" s="42"/>
-      <c r="L53" s="118"/>
+      <c r="L53" s="126"/>
     </row>
     <row r="54" spans="2:12">
       <c r="B54"/>
@@ -4438,7 +4449,7 @@
       <c r="K54" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="118"/>
+      <c r="L54" s="126"/>
     </row>
     <row r="55" spans="2:12">
       <c r="B55"/>
@@ -4484,7 +4495,7 @@
     </row>
     <row r="60" spans="2:12">
       <c r="K60" s="42"/>
-      <c r="L60" s="119" t="s">
+      <c r="L60" s="137" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4492,7 +4503,7 @@
       <c r="K61" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="119"/>
+      <c r="L61" s="137"/>
     </row>
     <row r="62" spans="2:12">
       <c r="K62" s="41" t="s">
@@ -4504,7 +4515,7 @@
       <c r="K63" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L63" s="104" t="s">
+      <c r="L63" s="136" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4512,18 +4523,18 @@
       <c r="K64" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L64" s="104"/>
+      <c r="L64" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L63:L64"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="L63:L64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47ADBA-88C2-FD4D-A2F9-04759B9BA0F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826DA0D-161C-3F4C-94F3-5DDCE02D6EC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
     <sheet name="lab2" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'lab1'!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'lab1'!$A$1:$S$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'lab2'!$A$2:$K$31</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
   <si>
     <t>BIOS ROM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,18 +105,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IOPHYSMEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXTPHYSMEM</t>
-  </si>
-  <si>
     <t>兼容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHYSTOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KERNBASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xF0000000(3840MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,15 +261,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kernel heap ↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lab1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,10 +442,6 @@
   </si>
   <si>
     <t>物理地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,52 +481,6 @@
   </si>
   <si>
     <t>unused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other sections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel table directory 4KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npages
-npages_basemem
-kern_pgdir
-pages[]  // 跟踪内核页状态的链表
-page_free_list  // free状态页链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pages(struct page info)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PHYSTOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  128M 0x08000000</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -604,32 +532,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  0x000A0000 (640KB)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KERNBASE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  0xF0000000(3840MB)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,6 +698,356 @@
         <scheme val="minor"/>
       </rPr>
       <t>↓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link:NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link:page0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link:page1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_free_list</t>
+  </si>
+  <si>
+    <t>pgdir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>KERNBASE, KSTACKTOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0xF0000000(3840MB)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核虚拟地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟内存地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MMIOLIM  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xefc00000(3836MB)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0xf0000000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KERNBASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    kernel stack
+PTSIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+=PGSIZE*NPTENTRIES
+=4096*1024</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=4*1024*1024=4MB</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backed by physical memory</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+KSTACKSIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=8PG=32KB</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not backed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+guard page</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kernel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table directory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+PGSIZE/sizeof(int)
+=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4096Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/4
+=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1024entry</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      (phy)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pages[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+npages * sizeof (struct PageInfo)
+=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 8
+=256Byte</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,7 +1248,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,8 +1405,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1234,30 +1510,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -1270,7 +1522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,12 +1541,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1358,9 +1604,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,12 +1625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,9 +1682,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,21 +1705,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1498,12 +1723,6 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1513,12 +1732,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1543,39 +1756,21 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,6 +1789,69 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,21 +1864,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1630,7 +1879,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,53 +1888,87 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1708,13 +1991,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>16935</xdr:rowOff>
@@ -1767,13 +2050,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1639060</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>195385</xdr:rowOff>
@@ -1826,13 +2109,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1510215</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>43420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -1885,13 +2168,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>10855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>10856</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>32565</xdr:rowOff>
@@ -1945,13 +2228,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>10855</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>10856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
@@ -2005,13 +2288,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>21710</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>21711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -2065,13 +2348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>16076</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>217025</xdr:rowOff>
@@ -2122,13 +2405,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1510216</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>32566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>16076</xdr:rowOff>
@@ -2179,13 +2462,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1649915</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>141111</xdr:rowOff>
@@ -2232,13 +2515,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2285,13 +2568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>50801</xdr:rowOff>
@@ -2344,13 +2627,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>217094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2027</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>221868</xdr:rowOff>
@@ -2382,6 +2665,170 @@
           </a:solidFill>
           <a:prstDash val="sysDot"/>
           <a:headEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38A4825-2EAD-524F-9B95-A3360118EA5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="444500" y="4381500"/>
+          <a:ext cx="723900" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628C8CE4-19C4-8A45-BE05-399B080C00CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="419100" y="5969000"/>
+          <a:ext cx="774700" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E44157E-5A4E-444C-9EDE-8BE61AC8993E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="508000" y="3924300"/>
+          <a:ext cx="2032000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2704,750 +3151,718 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="84" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="31" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="29.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="13" style="31" customWidth="1"/>
-    <col min="15" max="15" width="15" style="16" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="31" customWidth="1"/>
-    <col min="19" max="19" width="30.33203125" style="16" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="34.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="28" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="15" style="14" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" style="14" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="42" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:18" ht="42" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="B1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="18" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="111"/>
+      <c r="I1" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="58" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="58" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="41" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="16" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="41" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3"/>
+      <c r="O3" s="43"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="L4" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4"/>
+      <c r="O4" s="44"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3"/>
-      <c r="P3" s="48"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A4"/>
-      <c r="B4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="67"/>
-      <c r="O4"/>
-      <c r="P4" s="49"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="16" customHeight="1">
-      <c r="A5"/>
-      <c r="B5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="50"/>
-      <c r="O5"/>
-      <c r="P5" s="50"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="119" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="30"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="45"/>
+      <c r="N5"/>
+      <c r="O5" s="45"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="119" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" ht="120" customHeight="1" thickBot="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="59" customHeight="1" thickTop="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="121" t="s">
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="120" customHeight="1" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="122"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="59" customHeight="1" thickTop="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="120"/>
+      <c r="I8"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" s="28" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="61" t="s">
+      <c r="H11" s="119"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" s="28" customFormat="1" ht="57" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
+    </row>
+    <row r="13" spans="1:18" s="28" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="115"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="87"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="87"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" ht="29" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="118"/>
+      <c r="I15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="105"/>
+      <c r="N15" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="87"/>
+      <c r="P15" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="11" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="117"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="20" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="97"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="105"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="40"/>
+    </row>
+    <row r="18" spans="1:18" ht="33" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="105"/>
+      <c r="N18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="76"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="109"/>
+      <c r="I20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="14" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="76"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="97"/>
+      <c r="I22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="105"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="76"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" s="28" customFormat="1" ht="19" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="116"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="62"/>
-      <c r="S9" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="31" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="120"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="P11" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="R11" s="111"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" s="31" customFormat="1" ht="57" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="111"/>
-    </row>
-    <row r="13" spans="1:19" s="31" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="40" t="s">
+      <c r="N23" s="37"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="N25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="45"/>
-    </row>
-    <row r="15" spans="1:19" ht="29" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="131"/>
-      <c r="O15" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" s="111"/>
-      <c r="S15" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" ht="11" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="51" t="s">
+      <c r="O25" s="76"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="24"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="N26" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="20" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="131"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="89" t="s">
+      <c r="O26" s="76"/>
+      <c r="P26" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="24"/>
+    </row>
+    <row r="27" spans="1:18" ht="17">
+      <c r="N27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="76"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="8" customHeight="1">
+      <c r="N28" s="28"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="48"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="N29" s="28"/>
+      <c r="O29" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="48"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" thickBot="1">
+      <c r="N30" s="23"/>
+      <c r="O30" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="111"/>
-      <c r="S17" s="45"/>
-    </row>
-    <row r="18" spans="1:19" ht="33" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="131"/>
-      <c r="O18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="111"/>
-      <c r="S19" s="45"/>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="117"/>
-      <c r="J20" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="45"/>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="65"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" ht="16" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="116"/>
-      <c r="J22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="131"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="45"/>
-    </row>
-    <row r="23" spans="1:19" s="31" customFormat="1" ht="19" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="111"/>
-      <c r="S23" s="45"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="44" t="s">
+      <c r="P30" s="98"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="17" thickTop="1">
+      <c r="N31" s="23"/>
+      <c r="O31" s="97" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="O25" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="O26" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="111"/>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" ht="17">
-      <c r="O27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="47" t="s">
+      <c r="P31" s="97"/>
+      <c r="Q31" s="50" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="8" customHeight="1">
-      <c r="O28" s="31"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="53"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="O29" s="31"/>
-      <c r="P29" s="138" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="53"/>
-    </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1">
-      <c r="O30" s="25"/>
-      <c r="P30" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="17" thickTop="1">
-      <c r="O31" s="25"/>
-      <c r="P31" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1">
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1">
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="2:19" s="31" customFormat="1">
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="2:19" s="31" customFormat="1">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:19" ht="23" customHeight="1">
+    </row>
+    <row r="33" spans="1:18" s="28" customFormat="1">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" s="28" customFormat="1">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" ht="23" customHeight="1">
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="B36" s="14"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="22"/>
-      <c r="K36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-    </row>
-    <row r="51" spans="7:19">
+    </row>
+    <row r="36" spans="1:18" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="20"/>
+      <c r="J36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+    </row>
+    <row r="51" spans="6:18">
+      <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -3460,9 +3875,9 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51"/>
-    </row>
-    <row r="52" spans="7:19">
+    </row>
+    <row r="52" spans="6:18">
+      <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
@@ -3475,9 +3890,9 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52"/>
-    </row>
-    <row r="53" spans="7:19">
+    </row>
+    <row r="53" spans="6:18">
+      <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -3490,9 +3905,9 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53"/>
-    </row>
-    <row r="54" spans="7:19">
+    </row>
+    <row r="54" spans="6:18">
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -3505,9 +3920,9 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
-      <c r="S54"/>
-    </row>
-    <row r="55" spans="7:19">
+    </row>
+    <row r="55" spans="6:18">
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
@@ -3520,9 +3935,9 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
-      <c r="S55"/>
-    </row>
-    <row r="56" spans="7:19">
+    </row>
+    <row r="56" spans="6:18">
+      <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
@@ -3535,9 +3950,9 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
-      <c r="S56"/>
-    </row>
-    <row r="57" spans="7:19">
+    </row>
+    <row r="57" spans="6:18">
+      <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
@@ -3550,9 +3965,9 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
-      <c r="S57"/>
-    </row>
-    <row r="58" spans="7:19">
+    </row>
+    <row r="58" spans="6:18">
+      <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
@@ -3565,9 +3980,9 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
-      <c r="S58"/>
-    </row>
-    <row r="59" spans="7:19">
+    </row>
+    <row r="59" spans="6:18">
+      <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
@@ -3580,9 +3995,9 @@
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
-      <c r="S59"/>
-    </row>
-    <row r="60" spans="7:19">
+    </row>
+    <row r="60" spans="6:18">
+      <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
@@ -3595,9 +4010,9 @@
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
-      <c r="S60"/>
-    </row>
-    <row r="61" spans="7:19">
+    </row>
+    <row r="61" spans="6:18">
+      <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
@@ -3610,9 +4025,9 @@
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61"/>
-      <c r="S61"/>
-    </row>
-    <row r="62" spans="7:19">
+    </row>
+    <row r="62" spans="6:18">
+      <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
@@ -3625,9 +4040,9 @@
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62"/>
-      <c r="S62"/>
-    </row>
-    <row r="63" spans="7:19">
+    </row>
+    <row r="63" spans="6:18">
+      <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
@@ -3640,9 +4055,9 @@
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
-      <c r="S63"/>
-    </row>
-    <row r="64" spans="7:19">
+    </row>
+    <row r="64" spans="6:18">
+      <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -3655,9 +4070,9 @@
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64"/>
-      <c r="S64"/>
-    </row>
-    <row r="65" spans="7:19">
+    </row>
+    <row r="65" spans="6:18">
+      <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
@@ -3670,9 +4085,9 @@
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
-      <c r="S65"/>
-    </row>
-    <row r="66" spans="7:19">
+    </row>
+    <row r="66" spans="6:18">
+      <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
@@ -3685,9 +4100,9 @@
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
-      <c r="S66"/>
-    </row>
-    <row r="67" spans="7:19">
+    </row>
+    <row r="67" spans="6:18">
+      <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
@@ -3700,9 +4115,9 @@
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
-      <c r="S67"/>
-    </row>
-    <row r="68" spans="7:19">
+    </row>
+    <row r="68" spans="6:18">
+      <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
@@ -3715,9 +4130,9 @@
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
-      <c r="S68"/>
-    </row>
-    <row r="69" spans="7:19">
+    </row>
+    <row r="69" spans="6:18">
+      <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
@@ -3730,9 +4145,9 @@
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
-      <c r="S69"/>
-    </row>
-    <row r="70" spans="7:19">
+    </row>
+    <row r="70" spans="6:18">
+      <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
@@ -3745,9 +4160,9 @@
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
-      <c r="S70"/>
-    </row>
-    <row r="71" spans="7:19">
+    </row>
+    <row r="71" spans="6:18">
+      <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
@@ -3760,9 +4175,9 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
-      <c r="S71"/>
-    </row>
-    <row r="72" spans="7:19">
+    </row>
+    <row r="72" spans="6:18">
+      <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
@@ -3775,9 +4190,9 @@
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
-      <c r="S72"/>
-    </row>
-    <row r="73" spans="7:19">
+    </row>
+    <row r="73" spans="6:18">
+      <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
@@ -3790,9 +4205,9 @@
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
-      <c r="S73"/>
-    </row>
-    <row r="74" spans="7:19">
+    </row>
+    <row r="74" spans="6:18">
+      <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
@@ -3805,9 +4220,9 @@
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
-      <c r="S74"/>
-    </row>
-    <row r="75" spans="7:19">
+    </row>
+    <row r="75" spans="6:18">
+      <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
@@ -3820,9 +4235,9 @@
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
-      <c r="S75"/>
-    </row>
-    <row r="76" spans="7:19">
+    </row>
+    <row r="76" spans="6:18">
+      <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
@@ -3835,9 +4250,9 @@
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
-      <c r="S76"/>
-    </row>
-    <row r="77" spans="7:19">
+    </row>
+    <row r="77" spans="6:18">
+      <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
@@ -3850,9 +4265,9 @@
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
-      <c r="S77"/>
-    </row>
-    <row r="78" spans="7:19">
+    </row>
+    <row r="78" spans="6:18">
+      <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
@@ -3865,9 +4280,9 @@
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78"/>
-    </row>
-    <row r="79" spans="7:19">
+    </row>
+    <row r="79" spans="6:18">
+      <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
@@ -3880,9 +4295,9 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
-      <c r="S79"/>
-    </row>
-    <row r="80" spans="7:19">
+    </row>
+    <row r="80" spans="6:18">
+      <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
@@ -3895,9 +4310,9 @@
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
-      <c r="S80"/>
-    </row>
-    <row r="81" spans="7:19">
+    </row>
+    <row r="81" spans="6:18">
+      <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
@@ -3910,9 +4325,9 @@
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
-      <c r="S81"/>
-    </row>
-    <row r="82" spans="7:19">
+    </row>
+    <row r="82" spans="6:18">
+      <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
@@ -3925,9 +4340,9 @@
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
-      <c r="S82"/>
-    </row>
-    <row r="83" spans="7:19">
+    </row>
+    <row r="83" spans="6:18">
+      <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
@@ -3940,9 +4355,9 @@
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83"/>
-      <c r="S83"/>
-    </row>
-    <row r="84" spans="7:19">
+    </row>
+    <row r="84" spans="6:18">
+      <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -3955,45 +4370,44 @@
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84"/>
-      <c r="S84"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F15"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="L8:L24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="C19:D24"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R10:R30"/>
+    <mergeCell ref="Q10:Q30"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E15"/>
+    <mergeCell ref="F7:F15"/>
+    <mergeCell ref="K8:K24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="B19:C24"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="H8:I10"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P11:P13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4006,538 +4420,703 @@
   </sheetPr>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="84" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="84" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="23" style="79" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15" style="16" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="31"/>
+    <col min="1" max="1" width="31.33203125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23" style="68" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17">
-      <c r="A1" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="42" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A1" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="143"/>
+      <c r="E1" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" customHeight="1">
+      <c r="B2" s="111"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="3"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:11" ht="58" customHeight="1">
-      <c r="A3" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="113"/>
+      <c r="A3"/>
+      <c r="B3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="41" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="113"/>
-      <c r="E4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="132"/>
+      <c r="E4"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:11" ht="119" customHeight="1" thickBot="1">
-      <c r="A7" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="120" customHeight="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="59" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="64"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="60" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="A5"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+    </row>
+    <row r="6" spans="1:11" ht="28" customHeight="1">
+      <c r="A6" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="134"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="136"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="55" customHeight="1">
+      <c r="A8" s="136"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="145"/>
+    </row>
+    <row r="9" spans="1:11" ht="84" customHeight="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="80" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="41" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
+    <row r="11" spans="1:11" ht="24" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="140"/>
       <c r="E11"/>
-      <c r="F11"/>
+      <c r="F11" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>94</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12"/>
-      <c r="F12"/>
+    <row r="12" spans="1:11" ht="12" customHeight="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="141"/>
+      <c r="F12" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="112" t="s">
+        <v>50</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" ht="12" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="G13"/>
+    <row r="13" spans="1:11" ht="14" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" ht="14" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="78"/>
-      <c r="G14"/>
+    <row r="14" spans="1:11" ht="136" customHeight="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" ht="136" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="F15" s="100" t="s">
-        <v>104</v>
+    <row r="15" spans="1:11" ht="106" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>100</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" ht="37" customHeight="1">
-      <c r="A16" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="10"/>
+      <c r="A16" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>99</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" ht="51" customHeight="1">
-      <c r="A17" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="16"/>
-      <c r="F17"/>
+      <c r="A17" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>46</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" ht="55" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18"/>
-      <c r="F18"/>
+      <c r="F18" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>75</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" ht="55" customHeight="1">
-      <c r="C19" s="87"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
       <c r="E19"/>
-      <c r="F19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" ht="55" customHeight="1">
       <c r="E20"/>
-      <c r="F20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" ht="55" customHeight="1">
       <c r="E21"/>
-      <c r="F21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" ht="55" customHeight="1">
       <c r="E22"/>
-      <c r="F22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="E23"/>
-      <c r="F23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11">
       <c r="E24"/>
-      <c r="F24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
     </row>
     <row r="25" spans="1:11">
       <c r="E25"/>
-      <c r="F25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11">
       <c r="E26"/>
-      <c r="F26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" ht="23" customHeight="1">
-      <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
     </row>
     <row r="30" spans="1:11" ht="17" customHeight="1">
-      <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="7:12">
-      <c r="G33"/>
+    <row r="33" spans="8:12">
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="7:12">
-      <c r="G34"/>
+    <row r="34" spans="8:12">
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="7:12">
-      <c r="G35"/>
+    <row r="35" spans="8:12">
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="46" spans="7:12">
-      <c r="K46" s="39"/>
-      <c r="L46" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12">
-      <c r="K47" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="L47" s="110"/>
-    </row>
-    <row r="48" spans="7:12">
-      <c r="K48" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="L48" s="56"/>
+    <row r="46" spans="8:12">
+      <c r="K46" s="34"/>
+      <c r="L46" s="112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="8:12">
+      <c r="K47" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="112"/>
+    </row>
+    <row r="48" spans="8:12">
+      <c r="K48" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="51"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="K49" s="42"/>
-      <c r="L49" s="131" t="s">
-        <v>57</v>
+      <c r="K49" s="37"/>
+      <c r="L49" s="105" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50"/>
-      <c r="C50" s="87"/>
-      <c r="D50"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="K50" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="L50" s="136"/>
+      <c r="K50" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" s="124"/>
     </row>
     <row r="51" spans="2:12">
       <c r="B51"/>
-      <c r="C51" s="87"/>
-      <c r="D51"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="K51" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L51" s="56"/>
+      <c r="K51" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" s="51"/>
     </row>
     <row r="52" spans="2:12">
       <c r="B52"/>
-      <c r="C52" s="87"/>
-      <c r="D52"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="126" t="s">
-        <v>31</v>
+      <c r="K52" s="37"/>
+      <c r="L52" s="100" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="B53"/>
-      <c r="C53" s="87"/>
-      <c r="D53"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="126"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="100"/>
     </row>
     <row r="54" spans="2:12">
       <c r="B54"/>
-      <c r="C54" s="87"/>
-      <c r="D54"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="K54" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="L54" s="126"/>
+      <c r="K54" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" s="100"/>
     </row>
     <row r="55" spans="2:12">
       <c r="B55"/>
-      <c r="C55" s="87"/>
-      <c r="D55"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="60"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="54"/>
     </row>
     <row r="56" spans="2:12">
       <c r="B56"/>
-      <c r="C56" s="87"/>
-      <c r="D56"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="K56" s="41" t="s">
+      <c r="K56" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56" s="51"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="K57" s="37"/>
+      <c r="L57" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="K58" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="L58" s="52"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="K59" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L59" s="51"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="K60" s="37"/>
+      <c r="L60" s="123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="K61" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L61" s="123"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="K62" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L62" s="51"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="K63" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63" s="124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="K64" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="L56" s="56"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="K57" s="42"/>
-      <c r="L57" s="57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="K58" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L58" s="57"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="K59" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="L59" s="56"/>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="K60" s="42"/>
-      <c r="L60" s="137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="K61" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="L61" s="137"/>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="K62" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="L62" s="56"/>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="K63" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="L63" s="136" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="K64" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L64" s="136"/>
+      <c r="L64" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="L52:L54"/>
     <mergeCell ref="L60:L61"/>
     <mergeCell ref="L63:L64"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="L49:L50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F12:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7743CD22-AA7D-AB43-BAA2-95D16665C28F}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B7" sqref="B4:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25" customHeight="1"/>
+    <row r="2" spans="1:2" ht="30" customHeight="1"/>
+    <row r="3" spans="1:2" ht="20" customHeight="1"/>
+    <row r="4" spans="1:2" ht="27" customHeight="1"/>
+    <row r="5" spans="1:2" ht="30" customHeight="1"/>
+    <row r="6" spans="1:2" ht="30" customHeight="1"/>
+    <row r="7" spans="1:2" ht="19" customHeight="1">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1"/>
+    <row r="9" spans="1:2" ht="30" customHeight="1"/>
+    <row r="10" spans="1:2" ht="34" customHeight="1"/>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" customHeight="1">
+      <c r="A12" s="127"/>
+      <c r="B12" s="126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="48" customHeight="1"/>
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" s="127"/>
+      <c r="B15" s="126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="48" customHeight="1"/>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="127"/>
+      <c r="B18" s="126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="128"/>
+      <c r="B21" s="125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="128"/>
+      <c r="B24" s="125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="128"/>
+      <c r="B27" s="129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A556F7C-5FE2-104C-8D7A-2CCF26830F55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49E03F6-DBB6-E443-95B2-90F2B95F9E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="lab1(地址可能变化)" sheetId="1" r:id="rId1"/>
-    <sheet name="lab2" sheetId="9" r:id="rId2"/>
+    <sheet name="lab 1" sheetId="1" r:id="rId1"/>
+    <sheet name="lab 2" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'lab1(地址可能变化)'!$A$1:$S$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'lab2'!$A$2:$L$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'lab 1'!$A$1:$S$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'lab 2'!$A$2:$O$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{B3D12D08-96C8-8246-8407-14F414824062}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>0xFFFFFFFF (4GB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xFE000000(4064MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00007c00(31KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,22 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00004f14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00005eb0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0000bf59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0000e000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boot sector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,37 +168,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00100000  (1MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00010000(64KB) ELFHDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.bss
-Block Started by Symbol/
-uninitialized data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.data
-initialized data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00001000(4KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Program Header 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0000DF22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Program 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,35 +184,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00018560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>512byte</t>
   </si>
   <si>
-    <t>0KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Elf header    52 bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elf kernel file
-≈104KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>program</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,62 +213,6 @@
   <si>
     <t>lab1 内核虚拟地址空间 2
 高10位恒为 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0117560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0117544</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf010d000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf010CF22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf010af59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf010AF59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0104eb0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0104EAF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0103f14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0103f11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entry point 0xf010000c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lab2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -362,32 +246,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  0x00100000 (1MB)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IOPHYSMEM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  0x000A0000 (640KB)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,7 +283,6 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>from .data</t>
     </r>
@@ -441,7 +298,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>from .bss</t>
     </r>
@@ -511,36 +367,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>KERNBASE, KSTACKTOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0xF0000000(3840MB)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内核虚拟地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟内存地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -710,10 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于.text大小会随代码量变化而变化，所以图示只是特殊情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.etext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,19 +562,6 @@
   </si>
   <si>
     <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1st nextfree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base memory
-(可用物理内存页)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用物理内存页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -825,47 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户环境定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内核、用户均只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核：可读写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户：不可读写</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>KSTACKSIZE</t>
     </r>
@@ -887,14 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ULIM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UTOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">UPAGES  </t>
     </r>
@@ -986,8 +747,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>map space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elf kernel file image
+≈100+KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0xf0100000 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0400000(3844MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base memory
+(可用物理内存)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可用物理内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C boot loader stack↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">0x00115000 </t>
+      <t xml:space="preserve">0xf0115000 </t>
     </r>
     <r>
       <rPr>
@@ -1010,7 +817,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -1027,7 +834,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map space</t>
+    <t>unused(1MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户虚拟空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户虚拟地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核：可读写
+用户：不可读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IOPHYSMEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (640KB)0x000A0000 (640KB)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KERNBASE, KSTACKTOP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0xF0000000(3840MB)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PADDR(pages)   mapp(UPAGE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核/用户均只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0400000(3844MB)
+KERNEL VMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x08000000  由 RAM 确定， QEMU 默认是256MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PADDR(bootstack)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1103,22 +1016,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1141,21 +1038,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="等线"/>
       <family val="4"/>
@@ -1166,30 +1048,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -1207,13 +1065,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1224,32 +1080,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线 (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="等线 (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,19 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,12 +1226,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1420,18 +1238,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1439,6 +1245,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,15 +1319,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1512,17 +1345,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -1538,13 +1360,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1557,10 +1399,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,417 +1414,347 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,14 +1837,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1652531</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>321325</xdr:rowOff>
+      <xdr:colOff>1630822</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>45903</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>21710</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>321325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2088,8 +1860,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6763133" y="5814458"/>
-          <a:ext cx="3335662" cy="9287831"/>
+          <a:off x="6732531" y="5872393"/>
+          <a:ext cx="3329777" cy="8885684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2184,13 +1956,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>217094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>220133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2368,7 +2140,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>219506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2428,7 +2200,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2488,7 +2260,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>188148</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2545,7 +2317,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>47037</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2590,6 +2362,224 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2613725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>246662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4842</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1269119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="平行四边形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57775A60-59A5-2D4F-9C53-F1FE759AA972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2235160" y="11216662"/>
+          <a:ext cx="11206763" cy="5163031"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 192347"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2567352</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7815</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="平行四边形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D719F236-9E63-234C-9051-F602DD36B5D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-23773" y="10744525"/>
+          <a:ext cx="15678314" cy="5212863"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 277365"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2590799</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5087816</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3911599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="平行四边形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9F6D31-C196-224E-9F87-4E175C08A52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-758092" y="6727091"/>
+          <a:ext cx="17119599" cy="5138617"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 239746"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2895,32 +2885,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="50" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="93" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2" style="22" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="2" style="19" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="14" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="22" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="19" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="19" customWidth="1"/>
     <col min="11" max="11" width="24" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="22" customWidth="1"/>
-    <col min="13" max="13" width="5" style="22" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="5" style="19" customWidth="1"/>
+    <col min="14" max="14" width="15" style="12" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="22" customWidth="1"/>
-    <col min="18" max="18" width="30.33203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" style="12" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2928,426 +2918,420 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="139" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="139" t="s">
-        <v>78</v>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="58" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="97" t="s">
+      <c r="A2"/>
+      <c r="B2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="J2" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="140"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="J2" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="41" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="L3"/>
       <c r="M3" s="7"/>
       <c r="N3"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" s="22" customFormat="1" ht="32" customHeight="1" thickBot="1">
+      <c r="P3" s="25"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:21" s="19" customFormat="1" ht="32" customHeight="1" thickBot="1">
       <c r="A4"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="146"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="90"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="Q4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="Q4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="59" customHeight="1" thickTop="1">
       <c r="A5"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="J5" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="111"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="J5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="72"/>
       <c r="L5"/>
-      <c r="M5" s="46"/>
+      <c r="M5" s="32"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" s="22"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A6"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="22" customFormat="1" ht="13" customHeight="1">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+    </row>
+    <row r="7" spans="1:21" s="19" customFormat="1" ht="13" customHeight="1">
       <c r="A7"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
       <c r="M7" s="3"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" s="22" customFormat="1" ht="51" customHeight="1">
+      <c r="Q7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
       <c r="A8"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="J8" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="110"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="J8" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="74"/>
       <c r="M8" s="3"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8" s="3"/>
-      <c r="R8" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" s="22" customFormat="1" ht="57" customHeight="1">
+      <c r="R8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="89"/>
+    </row>
+    <row r="9" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>120</v>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3"/>
       <c r="Q9"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="105"/>
-    </row>
-    <row r="10" spans="1:21" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="R9" s="59"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="89"/>
+    </row>
+    <row r="10" spans="1:21" s="19" customFormat="1" ht="42" customHeight="1">
       <c r="A10"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="J10" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="65"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="J10" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="75"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="3"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="94"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="22" customFormat="1" ht="38" customHeight="1">
+      <c r="Q10"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="89"/>
+    </row>
+    <row r="11" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
       <c r="A11"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="62"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="104" t="s">
+        <v>81</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" s="3"/>
-      <c r="Q11"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="31"/>
-    </row>
-    <row r="12" spans="1:21" s="22" customFormat="1" ht="29" customHeight="1" thickBot="1">
+      <c r="Q11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="43"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="89"/>
+    </row>
+    <row r="12" spans="1:21" s="19" customFormat="1" ht="29" customHeight="1">
       <c r="A12"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="J12" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138" t="s">
-        <v>30</v>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="J12" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="102" t="s">
+        <v>82</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="Q12"/>
-      <c r="R12" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="63"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="22" customFormat="1" ht="11" customHeight="1">
+      <c r="R12" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="89"/>
+    </row>
+    <row r="13" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" s="13"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="J13" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="101"/>
+      <c r="L13" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="12"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="Q13" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="22" customFormat="1" ht="20" customHeight="1">
+      <c r="Q13" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="89"/>
+    </row>
+    <row r="14" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A14"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="12"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:21" s="22" customFormat="1" ht="33" customHeight="1">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="57"/>
+      <c r="U14" s="89"/>
+    </row>
+    <row r="15" spans="1:21" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A15"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="13"/>
+      <c r="M15" s="12"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="Q15" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="93"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="22" customFormat="1" ht="17" customHeight="1">
+      <c r="Q15" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="60"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="89"/>
+    </row>
+    <row r="16" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1">
       <c r="A16"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="13"/>
+      <c r="M16" s="12"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="Q16" s="144" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="59"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="31"/>
-    </row>
-    <row r="17" spans="1:21" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="Q16" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="31"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="89"/>
+    </row>
+    <row r="17" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A17"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="47"/>
+      <c r="M17" s="30"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="31"/>
-    </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" ht="14" customHeight="1">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="89"/>
+    </row>
+    <row r="18" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
       <c r="A18"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="47"/>
+      <c r="M18" s="30"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="Q18" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="R18" s="114"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="22" customFormat="1" ht="16" customHeight="1">
+      <c r="Q18" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="61"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="89"/>
+    </row>
+    <row r="19" spans="1:21" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A19"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -3355,19 +3339,19 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="Q19"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="31"/>
-    </row>
-    <row r="20" spans="1:21" s="22" customFormat="1" ht="19" customHeight="1">
+      <c r="R19" s="43"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="89"/>
+    </row>
+    <row r="20" spans="1:21" s="19" customFormat="1" ht="19" customHeight="1">
       <c r="A20"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -3375,245 +3359,239 @@
       <c r="N20"/>
       <c r="O20"/>
       <c r="Q20"/>
-      <c r="R20" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="59"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="31"/>
-    </row>
-    <row r="21" spans="1:21" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="R20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="31"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="89"/>
+    </row>
+    <row r="21" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="35"/>
+      <c r="M21" s="26"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="Q21"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="22" customFormat="1">
+      <c r="R21" s="44"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="89"/>
+    </row>
+    <row r="22" spans="1:21" s="19" customFormat="1">
       <c r="A22"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="Q22" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R22" s="83"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="19"/>
-    </row>
-    <row r="23" spans="1:21" s="22" customFormat="1" ht="34" customHeight="1">
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="Q22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="43"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="89"/>
+    </row>
+    <row r="23" spans="1:21" s="19" customFormat="1" ht="34" customHeight="1">
       <c r="A23"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="Q23" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="R23" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" s="59"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="19"/>
-    </row>
-    <row r="24" spans="1:21" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="Q24" s="16" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="Q23" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R24" s="85"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="22" customFormat="1" ht="8" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="37"/>
-    </row>
-    <row r="26" spans="1:21" s="22" customFormat="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="R26" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="S26" s="81"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="37"/>
-    </row>
-    <row r="27" spans="1:21" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="S27" s="82"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="22" customFormat="1" ht="17" customHeight="1" thickTop="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="89"/>
+    </row>
+    <row r="24" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="Q24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="45"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="89"/>
+    </row>
+    <row r="25" spans="1:21" s="19" customFormat="1" ht="8" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="89"/>
+    </row>
+    <row r="26" spans="1:21" s="19" customFormat="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="R26" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="41"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="89"/>
+    </row>
+    <row r="27" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="42"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="89"/>
+    </row>
+    <row r="28" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1" thickTop="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="S28" s="92"/>
-      <c r="T28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" s="22" customFormat="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="89"/>
+    </row>
+    <row r="29" spans="1:21" s="19" customFormat="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="18"/>
+      <c r="N29" s="16"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" s="135"/>
+      <c r="R29" s="51"/>
     </row>
     <row r="30" spans="1:21" ht="44" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="A30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="O30" s="22"/>
-    </row>
-    <row r="31" spans="1:21" s="22" customFormat="1" ht="82" customHeight="1">
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" s="19" customFormat="1" ht="82" customHeight="1">
       <c r="A31"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="R31" s="13"/>
-    </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" ht="32" customHeight="1" thickBot="1">
+      <c r="N31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="188" customHeight="1" thickBot="1">
       <c r="A32"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="113" t="s">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="113"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="136"/>
-      <c r="L32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="13"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="65"/>
+      <c r="L32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" ht="59" customHeight="1" thickTop="1">
       <c r="A33"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="142" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="142"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="70"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="J33" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="64"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
@@ -3621,19 +3599,20 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
+    <row r="34" spans="1:19" ht="29" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
       <c r="H34"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
@@ -3641,20 +3620,28 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+    <row r="35" spans="1:19" s="2" customFormat="1" ht="11" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="79"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
@@ -3662,19 +3649,22 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" s="22" customFormat="1" ht="51" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+    <row r="36" spans="1:19" ht="20" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="77"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="82"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -3682,20 +3672,20 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" s="22" customFormat="1" ht="57" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+    <row r="37" spans="1:19" ht="33" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
@@ -3703,20 +3693,20 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
@@ -3724,20 +3714,24 @@
       <c r="R38"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" s="22" customFormat="1" ht="17" customHeight="1">
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="78"/>
+      <c r="H39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
@@ -3745,20 +3739,22 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" ht="29" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
+    <row r="40" spans="1:19" s="2" customFormat="1" ht="14" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
@@ -3766,28 +3762,23 @@
       <c r="R40"/>
       <c r="S40"/>
     </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" ht="11" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="109"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+    <row r="41" spans="1:19" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="77"/>
+      <c r="H41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="M41" s="19"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
@@ -3795,22 +3786,23 @@
       <c r="R41"/>
       <c r="S41"/>
     </row>
-    <row r="42" spans="1:19" ht="20" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
+    <row r="42" spans="1:19" s="19" customFormat="1" ht="19" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="76"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
@@ -3818,20 +3810,23 @@
       <c r="R42"/>
       <c r="S42"/>
     </row>
-    <row r="43" spans="1:19" ht="33" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
+    <row r="43" spans="1:19" ht="18" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
@@ -3839,20 +3834,7 @@
       <c r="R43"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
+    <row r="44" spans="1:19">
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
@@ -3860,24 +3842,7 @@
       <c r="R44"/>
       <c r="S44"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="102"/>
-      <c r="H45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="47"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+    <row r="45" spans="1:19">
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
@@ -3885,22 +3850,7 @@
       <c r="R45"/>
       <c r="S45"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="47"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+    <row r="46" spans="1:19">
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
@@ -3908,23 +3858,7 @@
       <c r="R46"/>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" ht="16" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="103"/>
-      <c r="H47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="M47" s="22"/>
+    <row r="47" spans="1:19" ht="8" customHeight="1">
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
@@ -3932,23 +3866,7 @@
       <c r="R47"/>
       <c r="S47"/>
     </row>
-    <row r="48" spans="1:19" s="22" customFormat="1" ht="19" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="48" spans="1:19">
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
@@ -3956,23 +3874,7 @@
       <c r="R48"/>
       <c r="S48"/>
     </row>
-    <row r="49" spans="1:19" ht="18" customHeight="1">
-      <c r="A49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
+    <row r="49" spans="1:19">
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
@@ -3988,7 +3890,7 @@
       <c r="R50"/>
       <c r="S50"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" ht="18" customHeight="1">
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
@@ -3996,7 +3898,8 @@
       <c r="R51"/>
       <c r="S51"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" s="19" customFormat="1">
+      <c r="A52" s="10"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
@@ -4004,29 +3907,34 @@
       <c r="R52"/>
       <c r="S52"/>
     </row>
-    <row r="53" spans="1:19" ht="8" customHeight="1">
+    <row r="53" spans="1:19" s="19" customFormat="1">
+      <c r="A53" s="10"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53"/>
-    </row>
-    <row r="54" spans="1:19">
+    </row>
+    <row r="54" spans="1:19" ht="23" customHeight="1">
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
-      <c r="S54"/>
-    </row>
-    <row r="55" spans="1:19">
+    </row>
+    <row r="55" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A55" s="10"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="14"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
-      <c r="S55"/>
     </row>
     <row r="56" spans="1:19">
       <c r="N56"/>
@@ -4034,46 +3942,103 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
-      <c r="S56"/>
-    </row>
-    <row r="57" spans="1:19" ht="18" customHeight="1">
+    </row>
+    <row r="57" spans="1:19">
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
-      <c r="S57"/>
-    </row>
-    <row r="58" spans="1:19" s="22" customFormat="1">
-      <c r="A58" s="11"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-    </row>
-    <row r="59" spans="1:19" s="22" customFormat="1">
-      <c r="A59" s="11"/>
-    </row>
-    <row r="60" spans="1:19" ht="23" customHeight="1">
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="15"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="P61" s="22"/>
+    </row>
+    <row r="70" spans="6:18">
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="6:18">
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="6:18">
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="6:18">
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="6:18">
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="6:18">
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
     </row>
     <row r="76" spans="6:18">
       <c r="F76"/>
@@ -4495,126 +4460,38 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="6:18">
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
-      <c r="Q104"/>
-      <c r="R104"/>
-    </row>
-    <row r="105" spans="6:18">
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
-      <c r="Q105"/>
-      <c r="R105"/>
-    </row>
-    <row r="106" spans="6:18">
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
-      <c r="R106"/>
-    </row>
-    <row r="107" spans="6:18">
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-    </row>
-    <row r="108" spans="6:18">
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-    </row>
-    <row r="109" spans="6:18">
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="U7:U28"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E34"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="B38:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F35:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J33:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F2:G31"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J2:K4"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="T7:T27"/>
     <mergeCell ref="R8:R10"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R18"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J33:K49"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F2:G31"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J2:K4"/>
-    <mergeCell ref="F33:G40"/>
-    <mergeCell ref="J5:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E40"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="B44:C49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4625,653 +4502,1413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966B18B-D530-DC41-8F4A-79C6A756EFCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F66B4A7-3795-6B44-B5A2-41C1F00FF749}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="84" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17" style="53" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="23" style="53" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="18.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="15" style="52" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="52" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="52" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
-      <c r="A1" s="74"/>
-      <c r="B1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="104" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="42" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="96"/>
+    </row>
+    <row r="3" spans="1:17" ht="25" customHeight="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="47"/>
+      <c r="C3"/>
+      <c r="F3" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="118"/>
+      <c r="H3" s="106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="32" customHeight="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="47"/>
+      <c r="C4"/>
+      <c r="E4" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="106"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:17" ht="32" customHeight="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="47"/>
+      <c r="C5"/>
+      <c r="E5" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="106"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1">
+      <c r="A6" s="95"/>
+      <c r="B6" s="47"/>
+      <c r="C6"/>
+      <c r="F6" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="106"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1">
+      <c r="A7" s="95"/>
+      <c r="B7" s="47"/>
+      <c r="C7"/>
+      <c r="F7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="108"/>
+      <c r="H7" s="106"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="22" customHeight="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="47"/>
+      <c r="C8"/>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="56"/>
-    </row>
-    <row r="3" spans="1:12" ht="58" customHeight="1">
-      <c r="C3" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="119"/>
-    </row>
-    <row r="4" spans="1:12" ht="41" customHeight="1">
-      <c r="B4" s="120"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="125"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="119"/>
-    </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="125"/>
-      <c r="H5"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:12" ht="28" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="125"/>
-      <c r="H6" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" ht="37" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="118" t="s">
+      <c r="G8" s="108"/>
+      <c r="H8" s="106"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="47"/>
+      <c r="C9"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="106"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" ht="29" customHeight="1">
+      <c r="A10" s="95"/>
+      <c r="B10" s="47"/>
+      <c r="C10"/>
+      <c r="E10" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="1:12" ht="55" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="125"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="35" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" ht="38" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="131" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="132" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="124"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" ht="35" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="131" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="122" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" ht="38" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" ht="111" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="C13" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="121" t="s">
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="106"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" ht="101" customHeight="1">
+      <c r="A11" s="95"/>
+      <c r="B11" s="47"/>
+      <c r="C11"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="106"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" ht="55" customHeight="1">
+      <c r="A12" s="95"/>
+      <c r="B12" s="47"/>
+      <c r="C12"/>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="106"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" ht="38" customHeight="1">
+      <c r="A13" s="95"/>
+      <c r="B13" s="47"/>
+      <c r="C13"/>
+      <c r="E13" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="86"/>
+      <c r="H13" s="106"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" ht="26" customHeight="1">
+      <c r="A14" s="95"/>
+      <c r="B14" s="47"/>
+      <c r="C14"/>
+      <c r="E14" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="58"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="80" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="121"/>
-      <c r="G14"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>93</v>
+      <c r="J14" s="85" t="s">
+        <v>67</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="121"/>
-      <c r="G15"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="54"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" ht="97" customHeight="1">
+      <c r="A15" s="95"/>
+      <c r="B15" s="47"/>
+      <c r="C15"/>
+      <c r="E15" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="115"/>
+      <c r="J15" s="85"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="121"/>
-      <c r="G16"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>63</v>
-      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" ht="34" customHeight="1">
+      <c r="A16" s="95"/>
+      <c r="B16" s="47"/>
+      <c r="C16"/>
+      <c r="E16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="115"/>
+      <c r="J16" s="85"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" ht="14" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="121"/>
-      <c r="G17"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="87" t="s">
-        <v>92</v>
-      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" ht="19" customHeight="1">
+      <c r="A17" s="95"/>
+      <c r="B17" s="47"/>
+      <c r="C17"/>
+      <c r="F17" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" ht="136" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="121"/>
-      <c r="G18"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="70"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" ht="18" customHeight="1">
+      <c r="A18" s="95"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="21"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="88"/>
+      <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" ht="43" customHeight="1">
-      <c r="A19"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="121"/>
-      <c r="G19"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="95"/>
+      <c r="B19" s="47"/>
+      <c r="C19"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="88"/>
+      <c r="J19" s="19"/>
       <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" ht="37" customHeight="1">
-      <c r="A20"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="121"/>
-      <c r="G20"/>
-      <c r="H20" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" ht="34" customHeight="1">
+      <c r="A20" s="95"/>
+      <c r="B20" s="47"/>
+      <c r="C20"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="88"/>
+      <c r="J20" s="19"/>
       <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" ht="51" customHeight="1">
-      <c r="A21"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="121"/>
-      <c r="G21"/>
-      <c r="H21" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" ht="20" customHeight="1">
+      <c r="A21" s="95"/>
+      <c r="B21" s="47"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="88"/>
+      <c r="J21" s="19"/>
       <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" ht="55" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="121"/>
-      <c r="G22"/>
-      <c r="H22" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="K22"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17" ht="8" customHeight="1">
+      <c r="A22" s="95"/>
+      <c r="B22" s="47"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="88"/>
+      <c r="J22" s="19"/>
       <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" ht="55" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="120"/>
-      <c r="G23"/>
-      <c r="J23" s="58"/>
-      <c r="K23"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="95"/>
+      <c r="B23" s="47"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="88"/>
+      <c r="J23" s="19"/>
       <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" ht="55" customHeight="1">
-      <c r="B24" s="120"/>
-      <c r="G24"/>
-      <c r="K24"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" ht="18" customHeight="1">
+      <c r="A24" s="95"/>
+      <c r="B24" s="47"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="88"/>
+      <c r="J24" s="19"/>
       <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" ht="55" customHeight="1">
-      <c r="B25" s="120"/>
-      <c r="G25"/>
-      <c r="K25"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" ht="17" customHeight="1">
+      <c r="A25" s="95"/>
+      <c r="B25" s="47"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="88"/>
+      <c r="J25" s="19"/>
       <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" ht="55" customHeight="1">
-      <c r="B26" s="120"/>
-      <c r="G26"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="95"/>
+      <c r="B26" s="47"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="88"/>
+      <c r="J26" s="16"/>
       <c r="K26"/>
       <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="B27" s="120"/>
-      <c r="G27"/>
-      <c r="K27"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" ht="44" customHeight="1" thickBot="1">
+      <c r="A27" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="113"/>
+      <c r="C27" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="88"/>
       <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="B28" s="120"/>
-      <c r="G28"/>
-      <c r="K28"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" ht="82" customHeight="1">
+      <c r="A28" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="122"/>
+      <c r="C28"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="88"/>
       <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="B29" s="120"/>
-      <c r="G29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="B30" s="120"/>
-      <c r="G30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" ht="311" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="1:17" ht="26" customHeight="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="88"/>
+    </row>
+    <row r="31" spans="1:17" s="3" customFormat="1" ht="100" customHeight="1">
+      <c r="A31" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="121"/>
+      <c r="C31" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="88"/>
+      <c r="I31"/>
+      <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:17" s="3" customFormat="1" ht="37" customHeight="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="97"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="88"/>
+      <c r="I32"/>
+      <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-    </row>
-    <row r="33" spans="6:12" ht="23" customHeight="1">
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" s="3" customFormat="1" ht="95" customHeight="1">
+      <c r="A33" s="94"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="88"/>
+      <c r="I33"/>
+      <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-    </row>
-    <row r="34" spans="6:12" ht="17" customHeight="1">
-      <c r="F34"/>
-      <c r="G34"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" ht="117" customHeight="1">
+      <c r="A34" s="94"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="88"/>
+      <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-    </row>
-    <row r="35" spans="6:12">
-      <c r="F35"/>
-      <c r="G35"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" ht="11" customHeight="1">
+      <c r="A35" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="88"/>
+      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-    </row>
-    <row r="36" spans="6:12">
-      <c r="F36"/>
-      <c r="G36"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1">
+      <c r="A36" s="79"/>
+      <c r="B36" s="93"/>
+      <c r="C36"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="88"/>
+      <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-    </row>
-    <row r="37" spans="6:12">
-      <c r="F37"/>
-      <c r="G37"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" ht="33" customHeight="1">
+      <c r="A37" s="79"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="88"/>
+      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-    </row>
-    <row r="38" spans="6:12">
-      <c r="F38"/>
-      <c r="G38"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" ht="17" customHeight="1">
+      <c r="A38" s="98"/>
+      <c r="B38" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="88"/>
+      <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-    </row>
-    <row r="39" spans="6:12">
-      <c r="F39"/>
-      <c r="G39"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1">
+      <c r="A39" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="7"/>
+      <c r="D39"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="88"/>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="L50" s="25"/>
-      <c r="M50" s="94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="L51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" s="94"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="L52" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" s="40"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="L53" s="28"/>
-      <c r="M53" s="98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="58"/>
-      <c r="B54" s="120"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="I54"/>
-      <c r="J54" s="58"/>
-      <c r="L54" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="M54" s="116"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="58"/>
-      <c r="B55" s="120"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="I55"/>
-      <c r="J55" s="58"/>
-      <c r="L55" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M55" s="40"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="58"/>
-      <c r="B56" s="120"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="I56"/>
-      <c r="J56" s="58"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="58"/>
-      <c r="B57" s="120"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="I57"/>
-      <c r="J57" s="58"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="93"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="58"/>
-      <c r="B58" s="120"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="I58"/>
-      <c r="J58" s="58"/>
-      <c r="L58" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="M58" s="93"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="58"/>
-      <c r="B59" s="120"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="I59"/>
-      <c r="J59" s="58"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="43"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="58"/>
-      <c r="B60" s="120"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="I60"/>
-      <c r="J60" s="58"/>
-      <c r="L60" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M60" s="40"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="L61" s="28"/>
-      <c r="M61" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="L62" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M62" s="41"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="L63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M63" s="40"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="L64" s="28"/>
-      <c r="M64" s="115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="12:13">
-      <c r="L65" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M65" s="115"/>
-    </row>
-    <row r="66" spans="12:13">
-      <c r="L66" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="M66" s="40"/>
-    </row>
-    <row r="67" spans="12:13">
-      <c r="L67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M67" s="116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="12:13">
-      <c r="L68" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M68" s="116"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:15" ht="14" customHeight="1">
+      <c r="A40" s="98"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="7"/>
+      <c r="D40"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="88"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:15" ht="16" customHeight="1">
+      <c r="A41" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="92"/>
+      <c r="C41" s="7"/>
+      <c r="D41"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="88"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:15" ht="19" customHeight="1">
+      <c r="A42" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="7"/>
+      <c r="D42"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="88"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" customHeight="1">
+      <c r="A43" s="75"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="88"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="1:15" ht="8" customHeight="1">
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="6:15">
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="6:15">
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="6:15" ht="18" customHeight="1">
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+    </row>
+    <row r="52" spans="6:15">
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="6:15">
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="6:15" ht="23" customHeight="1">
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="6:15" ht="17" customHeight="1">
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="6:15">
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="6:15">
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C13:D22"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="M56:M58"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="E13:E22"/>
+  <mergeCells count="19">
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H13"/>
+    <mergeCell ref="F17:G43"/>
+    <mergeCell ref="H17:H43"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="F3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49E03F6-DBB6-E443-95B2-90F2B95F9E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913818A1-0BFE-AB4A-AF4F-7074FBFCDC40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
@@ -1556,125 +1556,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,23 +1569,156 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1707,54 +1726,35 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,7 +2887,7 @@
   </sheetPr>
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="93" zoomScaleNormal="229" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="229" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -2924,18 +2924,18 @@
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
       <c r="E1" s="81"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="87"/>
       <c r="H1" s="53" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="53"/>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="63"/>
+      <c r="K1" s="87"/>
       <c r="L1" s="53" t="s">
         <v>47</v>
       </c>
@@ -2948,12 +2948,12 @@
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="J2" s="68" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="J2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="7"/>
@@ -2961,12 +2961,12 @@
       <c r="C3" s="82"/>
       <c r="D3" s="82"/>
       <c r="E3" s="82"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
       <c r="L3"/>
       <c r="M3" s="7"/>
       <c r="N3"/>
@@ -2980,14 +2980,14 @@
       <c r="C4" s="82"/>
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="67" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="90"/>
+      <c r="M4" s="96"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="Q4" s="12"/>
@@ -2999,12 +2999,12 @@
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="J5" s="72" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="J5" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="72"/>
+      <c r="K5" s="100"/>
       <c r="L5"/>
       <c r="M5" s="32"/>
       <c r="N5"/>
@@ -3017,10 +3017,10 @@
       <c r="C6" s="82"/>
       <c r="D6" s="82"/>
       <c r="E6" s="82"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" s="19"/>
@@ -3042,10 +3042,10 @@
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
       <c r="M7" s="3"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -3055,10 +3055,10 @@
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="89" t="s">
+      <c r="U7" s="78" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3068,24 +3068,24 @@
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="J8" s="74" t="s">
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="J8" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="74"/>
+      <c r="K8" s="102"/>
       <c r="M8" s="3"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8" s="3"/>
-      <c r="R8" s="59" t="s">
+      <c r="R8" s="106" t="s">
         <v>43</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="57"/>
-      <c r="U8" s="89"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="78"/>
     </row>
     <row r="9" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
       <c r="A9"/>
@@ -3093,8 +3093,8 @@
       <c r="C9" s="82"/>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
       <c r="J9" s="40"/>
       <c r="K9" s="39" t="s">
         <v>45</v>
@@ -3107,10 +3107,10 @@
       <c r="O9"/>
       <c r="P9" s="3"/>
       <c r="Q9"/>
-      <c r="R9" s="59"/>
+      <c r="R9" s="106"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="89"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="78"/>
     </row>
     <row r="10" spans="1:21" s="19" customFormat="1" ht="42" customHeight="1">
       <c r="A10"/>
@@ -3118,22 +3118,22 @@
       <c r="C10" s="82"/>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="J10" s="75" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="J10" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="35"/>
       <c r="M10" s="3"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" s="3"/>
       <c r="Q10"/>
-      <c r="R10" s="59"/>
+      <c r="R10" s="106"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="89"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="78"/>
     </row>
     <row r="11" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
       <c r="A11"/>
@@ -3141,11 +3141,11 @@
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
       <c r="E11" s="82"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="104" t="s">
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="64" t="s">
         <v>81</v>
       </c>
       <c r="M11" s="3"/>
@@ -3157,8 +3157,8 @@
       </c>
       <c r="R11" s="43"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="89"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="78"/>
     </row>
     <row r="12" spans="1:21" s="19" customFormat="1" ht="29" customHeight="1">
       <c r="A12"/>
@@ -3166,13 +3166,13 @@
       <c r="C12" s="82"/>
       <c r="D12" s="82"/>
       <c r="E12" s="82"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="J12" s="100" t="s">
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="J12" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="102" t="s">
+      <c r="K12" s="103"/>
+      <c r="L12" s="62" t="s">
         <v>82</v>
       </c>
       <c r="M12" s="7"/>
@@ -3183,8 +3183,8 @@
         <v>44</v>
       </c>
       <c r="S12" s="33"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="89"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="78"/>
     </row>
     <row r="13" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13"/>
@@ -3192,13 +3192,13 @@
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="J13" s="101" t="s">
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="J13" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="103" t="s">
+      <c r="K13" s="79"/>
+      <c r="L13" s="63" t="s">
         <v>88</v>
       </c>
       <c r="M13" s="12"/>
@@ -3209,8 +3209,8 @@
       </c>
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="89"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="78"/>
     </row>
     <row r="14" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A14"/>
@@ -3218,8 +3218,8 @@
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -3227,14 +3227,14 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="60" t="s">
+      <c r="R14" s="107" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="57"/>
-      <c r="U14" s="89"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="78"/>
     </row>
     <row r="15" spans="1:21" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A15"/>
@@ -3242,8 +3242,8 @@
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -3253,10 +3253,10 @@
       <c r="Q15" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="60"/>
+      <c r="R15" s="107"/>
       <c r="S15" s="31"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="89"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="78"/>
     </row>
     <row r="16" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1">
       <c r="A16"/>
@@ -3264,8 +3264,8 @@
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -3275,12 +3275,12 @@
       <c r="Q16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="61" t="s">
+      <c r="R16" s="108" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="31"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="89"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="78"/>
     </row>
     <row r="17" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A17"/>
@@ -3288,8 +3288,8 @@
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -3297,10 +3297,10 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="Q17" s="23"/>
-      <c r="R17" s="61"/>
+      <c r="R17" s="108"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="89"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="78"/>
     </row>
     <row r="18" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
       <c r="A18"/>
@@ -3308,8 +3308,8 @@
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
       <c r="E18" s="82"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -3319,10 +3319,10 @@
       <c r="Q18" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="61"/>
+      <c r="R18" s="108"/>
       <c r="S18" s="31"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="89"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="78"/>
     </row>
     <row r="19" spans="1:21" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A19"/>
@@ -3330,8 +3330,8 @@
       <c r="C19" s="82"/>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -3341,8 +3341,8 @@
       <c r="Q19"/>
       <c r="R19" s="43"/>
       <c r="S19" s="31"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="89"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="78"/>
     </row>
     <row r="20" spans="1:21" s="19" customFormat="1" ht="19" customHeight="1">
       <c r="A20"/>
@@ -3350,8 +3350,8 @@
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -3363,8 +3363,8 @@
         <v>16</v>
       </c>
       <c r="S20" s="31"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="89"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="78"/>
     </row>
     <row r="21" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="21"/>
@@ -3372,8 +3372,8 @@
       <c r="C21" s="82"/>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -3383,8 +3383,8 @@
       <c r="Q21"/>
       <c r="R21" s="44"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="89"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="78"/>
     </row>
     <row r="22" spans="1:21" s="19" customFormat="1">
       <c r="A22"/>
@@ -3392,15 +3392,15 @@
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
       <c r="Q22" s="24" t="s">
         <v>52</v>
       </c>
       <c r="R22" s="43"/>
       <c r="S22" s="31"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="89"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="78"/>
     </row>
     <row r="23" spans="1:21" s="19" customFormat="1" ht="34" customHeight="1">
       <c r="A23"/>
@@ -3408,8 +3408,8 @@
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
       <c r="Q23" s="56" t="s">
         <v>77</v>
       </c>
@@ -3417,8 +3417,8 @@
         <v>15</v>
       </c>
       <c r="S23" s="31"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="89"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="78"/>
     </row>
     <row r="24" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="10"/>
@@ -3426,15 +3426,15 @@
       <c r="C24" s="82"/>
       <c r="D24" s="82"/>
       <c r="E24" s="82"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="Q24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="31"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="89"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="78"/>
     </row>
     <row r="25" spans="1:21" s="19" customFormat="1" ht="8" customHeight="1">
       <c r="A25" s="10"/>
@@ -3442,12 +3442,12 @@
       <c r="C25" s="82"/>
       <c r="D25" s="82"/>
       <c r="E25" s="82"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
       <c r="R25" s="43"/>
       <c r="S25" s="43"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="89"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="78"/>
     </row>
     <row r="26" spans="1:21" s="19" customFormat="1">
       <c r="A26" s="10"/>
@@ -3455,14 +3455,14 @@
       <c r="C26" s="82"/>
       <c r="D26" s="82"/>
       <c r="E26" s="82"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
       <c r="R26" s="41" t="s">
         <v>26</v>
       </c>
       <c r="S26" s="41"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="89"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="78"/>
     </row>
     <row r="27" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
@@ -3470,15 +3470,15 @@
       <c r="C27" s="82"/>
       <c r="D27" s="82"/>
       <c r="E27" s="82"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="42" t="s">
         <v>30</v>
       </c>
       <c r="S27" s="42"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="89"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="78"/>
     </row>
     <row r="28" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1" thickTop="1">
       <c r="A28" s="10"/>
@@ -3486,8 +3486,8 @@
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -3499,7 +3499,7 @@
       <c r="T28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="89"/>
+      <c r="U28" s="78"/>
     </row>
     <row r="29" spans="1:21" s="19" customFormat="1">
       <c r="A29" s="10"/>
@@ -3507,8 +3507,8 @@
       <c r="C29" s="82"/>
       <c r="D29" s="82"/>
       <c r="E29" s="82"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -3526,8 +3526,8 @@
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
       <c r="E30" s="82"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -3539,8 +3539,8 @@
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3554,16 +3554,16 @@
       <c r="C32" s="82"/>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="69"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="65"/>
+      <c r="K32" s="93"/>
       <c r="L32" s="13" t="s">
         <v>33</v>
       </c>
@@ -3580,16 +3580,16 @@
       <c r="C33" s="82"/>
       <c r="D33" s="82"/>
       <c r="E33" s="82"/>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="98"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="64" t="s">
+      <c r="J33" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="64"/>
+      <c r="K33" s="92"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33"/>
@@ -3607,12 +3607,12 @@
       <c r="C34" s="82"/>
       <c r="D34" s="82"/>
       <c r="E34" s="82"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
       <c r="H34"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
@@ -3624,7 +3624,7 @@
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="6"/>
@@ -3632,14 +3632,14 @@
       <c r="E35" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="79" t="s">
+      <c r="F35" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="79"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35"/>
@@ -3653,18 +3653,18 @@
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="6"/>
       <c r="D36" s="84" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="82"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -3676,16 +3676,16 @@
       <c r="A37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="84"/>
       <c r="E37" s="82"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
@@ -3703,8 +3703,8 @@
       <c r="G38" s="20"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38"/>
@@ -3720,16 +3720,16 @@
       <c r="C39" s="83"/>
       <c r="D39" s="84"/>
       <c r="E39" s="82"/>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I39" s="30"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39"/>
@@ -3751,8 +3751,8 @@
         <v>21</v>
       </c>
       <c r="I40" s="30"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40"/>
@@ -3768,16 +3768,16 @@
       <c r="C41" s="83"/>
       <c r="D41" s="84"/>
       <c r="E41" s="82"/>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="77"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
       <c r="M41" s="19"/>
       <c r="N41"/>
       <c r="O41"/>
@@ -3792,14 +3792,14 @@
       <c r="C42" s="83"/>
       <c r="D42" s="84"/>
       <c r="E42" s="82"/>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="76"/>
+      <c r="G42" s="89"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
       <c r="L42" s="4" t="s">
         <v>34</v>
       </c>
@@ -3818,12 +3818,12 @@
       <c r="C43" s="83"/>
       <c r="D43" s="84"/>
       <c r="E43" s="82"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
       <c r="L43" s="4">
         <v>0</v>
       </c>
@@ -4462,6 +4462,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="T7:T27"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F2:G31"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J2:K4"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="U7:U28"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="B1:E1"/>
@@ -4478,20 +4492,6 @@
     <mergeCell ref="F35:G37"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="J33:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F2:G31"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J2:K4"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="J5:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="T7:T27"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4508,7 +4508,7 @@
   </sheetPr>
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="229" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="35" zoomScaleNormal="229" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4532,10 +4532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="53" t="s">
         <v>37</v>
       </c>
@@ -4543,48 +4543,48 @@
       <c r="E1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="96" t="s">
+      <c r="G1" s="109"/>
+      <c r="H1" s="112" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="42" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="119" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="96"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="95"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="47"/>
       <c r="C3"/>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="124"/>
+      <c r="H3" s="113" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="32" customHeight="1">
-      <c r="A4" s="95"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="47"/>
       <c r="C4"/>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="106"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="113"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" s="19"/>
@@ -4593,15 +4593,15 @@
       <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:17" ht="32" customHeight="1">
-      <c r="A5" s="95"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="47"/>
       <c r="C5"/>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="106"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="113"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" s="19"/>
@@ -4610,16 +4610,16 @@
       <c r="O5" s="52"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="47"/>
       <c r="C6"/>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="106"/>
+      <c r="H6" s="113"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -4631,14 +4631,14 @@
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="47"/>
       <c r="C7"/>
       <c r="F7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="106"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="113"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -4650,17 +4650,17 @@
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A8" s="95"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="47"/>
       <c r="C8"/>
       <c r="E8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="106"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="113"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -4672,12 +4672,12 @@
       <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="47"/>
       <c r="C9"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="106"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="113"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -4688,15 +4688,15 @@
       <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" ht="29" customHeight="1">
-      <c r="A10" s="95"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="47"/>
       <c r="C10"/>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="106"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="113"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -4707,17 +4707,17 @@
       <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" ht="101" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="47"/>
       <c r="C11"/>
       <c r="E11" s="49"/>
       <c r="F11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="106"/>
+      <c r="H11" s="113"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -4728,7 +4728,7 @@
       <c r="Q11"/>
     </row>
     <row r="12" spans="1:17" ht="55" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="47"/>
       <c r="C12"/>
       <c r="E12" s="5" t="s">
@@ -4737,8 +4737,8 @@
       <c r="F12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="106"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="113"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -4749,17 +4749,17 @@
       <c r="Q12"/>
     </row>
     <row r="13" spans="1:17" ht="38" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="47"/>
       <c r="C13"/>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="106"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="113"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -4770,7 +4770,7 @@
       <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" ht="26" customHeight="1">
-      <c r="A14" s="95"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="47"/>
       <c r="C14"/>
       <c r="E14" s="49" t="s">
@@ -4779,13 +4779,13 @@
       <c r="F14" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="85" t="s">
+      <c r="G14" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="85" t="s">
+      <c r="J14" s="110" t="s">
         <v>67</v>
       </c>
       <c r="K14"/>
@@ -4797,7 +4797,7 @@
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:17" ht="97" customHeight="1">
-      <c r="A15" s="95"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="47"/>
       <c r="C15"/>
       <c r="E15" s="49" t="s">
@@ -4806,9 +4806,9 @@
       <c r="F15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="115"/>
-      <c r="J15" s="85"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="117"/>
+      <c r="J15" s="110"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -4818,7 +4818,7 @@
       <c r="Q15"/>
     </row>
     <row r="16" spans="1:17" ht="34" customHeight="1">
-      <c r="A16" s="95"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="47"/>
       <c r="C16"/>
       <c r="E16" s="49" t="s">
@@ -4827,9 +4827,9 @@
       <c r="F16" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="115"/>
-      <c r="J16" s="85"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="117"/>
+      <c r="J16" s="110"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -4839,14 +4839,14 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="1:17" ht="19" customHeight="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="47"/>
       <c r="C17"/>
-      <c r="F17" s="107" t="s">
+      <c r="F17" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="88" t="s">
+      <c r="G17" s="114"/>
+      <c r="H17" s="115" t="s">
         <v>94</v>
       </c>
       <c r="J17"/>
@@ -4859,12 +4859,12 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" ht="18" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="47"/>
       <c r="C18" s="21"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="88"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -4875,12 +4875,12 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="95"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="47"/>
       <c r="C19"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="88"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
       <c r="J19" s="19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -4890,12 +4890,12 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" ht="34" customHeight="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="47"/>
       <c r="C20"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="88"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
       <c r="J20" s="19"/>
       <c r="L20"/>
       <c r="M20"/>
@@ -4905,11 +4905,11 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" ht="20" customHeight="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="47"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="88"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
       <c r="J21" s="19"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -4919,11 +4919,11 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" ht="8" customHeight="1">
-      <c r="A22" s="95"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="47"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="88"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
       <c r="J22" s="19"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -4933,11 +4933,11 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="95"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="47"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="88"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
       <c r="J23" s="19"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -4947,11 +4947,11 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" ht="18" customHeight="1">
-      <c r="A24" s="95"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="47"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="88"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
       <c r="J24" s="19"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -4961,11 +4961,11 @@
       <c r="Q24"/>
     </row>
     <row r="25" spans="1:17" ht="17" customHeight="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="47"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="88"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
       <c r="J25" s="19"/>
       <c r="L25"/>
       <c r="M25"/>
@@ -4975,11 +4975,11 @@
       <c r="Q25"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="95"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="47"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="88"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
       <c r="J26" s="16"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -4990,16 +4990,16 @@
       <c r="Q26"/>
     </row>
     <row r="27" spans="1:17" ht="44" customHeight="1" thickBot="1">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="120" t="s">
+      <c r="B27" s="116"/>
+      <c r="C27" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="88"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -5013,9 +5013,9 @@
       </c>
       <c r="B28" s="122"/>
       <c r="C28"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="88"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="115"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -5024,40 +5024,40 @@
       <c r="Q28"/>
     </row>
     <row r="29" spans="1:17" ht="311" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="97" t="s">
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="88"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
     </row>
     <row r="30" spans="1:17" ht="26" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="97"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="88"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
     </row>
     <row r="31" spans="1:17" s="3" customFormat="1" ht="100" customHeight="1">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="114" t="s">
+      <c r="B31" s="75"/>
+      <c r="C31" s="71" t="s">
         <v>99</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="88"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -5067,14 +5067,14 @@
       <c r="O31"/>
     </row>
     <row r="32" spans="1:17" s="3" customFormat="1" ht="37" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="97"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="88"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -5084,16 +5084,16 @@
       <c r="O32"/>
     </row>
     <row r="33" spans="1:15" s="3" customFormat="1" ht="95" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="97" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="59" t="s">
         <v>107</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="88"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="115"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -5103,16 +5103,16 @@
       <c r="O33"/>
     </row>
     <row r="34" spans="1:15" ht="117" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="88"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -5121,18 +5121,18 @@
       <c r="O34"/>
     </row>
     <row r="35" spans="1:15" ht="11" customHeight="1">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="119" t="s">
         <v>86</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="88"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="115"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -5141,14 +5141,14 @@
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15" ht="20" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="119"/>
       <c r="C36"/>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="88"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="115"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -5157,16 +5157,16 @@
       <c r="O36"/>
     </row>
     <row r="37" spans="1:15" ht="33" customHeight="1">
-      <c r="A37" s="79"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="88"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="115"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -5175,16 +5175,16 @@
       <c r="O37"/>
     </row>
     <row r="38" spans="1:15" ht="17" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="92" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="123" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="88"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -5193,16 +5193,16 @@
       <c r="O38"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="92"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="7"/>
       <c r="D39"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="88"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="115"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -5211,14 +5211,14 @@
       <c r="O39"/>
     </row>
     <row r="40" spans="1:15" ht="14" customHeight="1">
-      <c r="A40" s="98"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="7"/>
       <c r="D40"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="88"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="115"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
@@ -5230,13 +5230,13 @@
       <c r="A41" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="92"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="7"/>
       <c r="D41"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="88"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="115"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -5245,16 +5245,16 @@
       <c r="O41"/>
     </row>
     <row r="42" spans="1:15" ht="19" customHeight="1">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="92"/>
+      <c r="B42" s="123"/>
       <c r="C42" s="7"/>
       <c r="D42"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="88"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="115"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
@@ -5263,16 +5263,16 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1">
-      <c r="A43" s="75"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="123"/>
       <c r="C43" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="88"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="115"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -5886,24 +5886,24 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F17:G43"/>
+    <mergeCell ref="H17:H43"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H3:H13"/>
-    <mergeCell ref="F17:G43"/>
-    <mergeCell ref="H17:H43"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B35:B37"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B38:B43"/>
     <mergeCell ref="F3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913818A1-0BFE-AB4A-AF4F-7074FBFCDC40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C4D302-40D4-754E-8FC9-D5F23204AC91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
     <sheet name="lab 2" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'lab 1'!$A$1:$S$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'lab 2'!$A$2:$O$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'lab 1'!$A$1:$V$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'lab 2'!$A$2:$M$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>0xFFFFFFFF (4GB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,11 +936,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kernel space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PADDR(bootstack)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>˛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1363,15 +1363,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1386,7 +1377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1572,31 +1563,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,8 +1593,68 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1642,74 +1683,35 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1717,44 +1719,41 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2372,22 +2371,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2613725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>246662</xdr:rowOff>
+      <xdr:colOff>2631765</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>505534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4842</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1269119</xdr:rowOff>
+      <xdr:colOff>20484</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="平行四边形 79">
+        <xdr:cNvPr id="85" name="平行四边形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57775A60-59A5-2D4F-9C53-F1FE759AA972}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9F6D31-C196-224E-9F87-4E175C08A52E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,18 +2394,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2235160" y="11216662"/>
-          <a:ext cx="11206763" cy="5163031"/>
+          <a:off x="-2978188" y="8951410"/>
+          <a:ext cx="21752509" cy="5255321"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 192347"/>
+            <a:gd name="adj" fmla="val 323772"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -2442,23 +2441,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2567352</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>327740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7815</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>65781</xdr:rowOff>
+      <xdr:colOff>9011</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49319</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="平行四边形 80">
+        <xdr:cNvPr id="5" name="平行四边形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D719F236-9E63-234C-9051-F602DD36B5D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EBDE82-9B50-9640-953F-DB3DAF23A8BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,12 +2465,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-23773" y="10744525"/>
-          <a:ext cx="15678314" cy="5212863"/>
+          <a:off x="-1958566" y="12680578"/>
+          <a:ext cx="19708667" cy="5236972"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 277365"/>
+            <a:gd name="adj" fmla="val 352524"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2514,22 +2513,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2590799</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2638640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>797280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5087816</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>3911599</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20483</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77758</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="平行四边形 84">
+        <xdr:cNvPr id="6" name="平行四边形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9F6D31-C196-224E-9F87-4E175C08A52E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD34DDA-F5A6-374E-A3A1-2DE9C981C8DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,18 +2536,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-758092" y="6727091"/>
-          <a:ext cx="17119599" cy="5138617"/>
+          <a:off x="573449" y="13552665"/>
+          <a:ext cx="14656109" cy="5248445"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 239746"/>
+            <a:gd name="adj" fmla="val 262642"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -2887,8 +2886,8 @@
   </sheetPr>
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" zoomScale="51" zoomScaleNormal="229" workbookViewId="0">
+      <selection sqref="A1:V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2918,55 +2917,55 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="87"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="53" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="53"/>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="87"/>
+      <c r="K1" s="80"/>
       <c r="L1" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="58" customHeight="1">
       <c r="A2"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="J2" s="97" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="J2" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="97"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3"/>
       <c r="M3" s="7"/>
       <c r="N3"/>
@@ -2976,18 +2975,18 @@
     </row>
     <row r="4" spans="1:21" s="19" customFormat="1" ht="32" customHeight="1" thickBot="1">
       <c r="A4"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="95" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="96"/>
+      <c r="M4" s="84"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="Q4" s="12"/>
@@ -2995,16 +2994,16 @@
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="59" customHeight="1" thickTop="1">
       <c r="A5"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="J5" s="100" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="J5" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="100"/>
+      <c r="K5" s="89"/>
       <c r="L5"/>
       <c r="M5" s="32"/>
       <c r="N5"/>
@@ -3013,14 +3012,14 @@
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A6"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" s="19"/>
@@ -3038,14 +3037,14 @@
     </row>
     <row r="7" spans="1:21" s="19" customFormat="1" ht="13" customHeight="1">
       <c r="A7"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
       <c r="M7" s="3"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -3055,46 +3054,46 @@
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
-      <c r="T7" s="104" t="s">
+      <c r="T7" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="78" t="s">
+      <c r="U7" s="94" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
       <c r="A8"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="J8" s="102" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="J8" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="102"/>
+      <c r="K8" s="91"/>
       <c r="M8" s="3"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8" s="3"/>
-      <c r="R8" s="106" t="s">
+      <c r="R8" s="76" t="s">
         <v>43</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="104"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="94"/>
     </row>
     <row r="9" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
       <c r="J9" s="40"/>
       <c r="K9" s="39" t="s">
         <v>45</v>
@@ -3107,44 +3106,44 @@
       <c r="O9"/>
       <c r="P9" s="3"/>
       <c r="Q9"/>
-      <c r="R9" s="106"/>
+      <c r="R9" s="76"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="78"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="94"/>
     </row>
     <row r="10" spans="1:21" s="19" customFormat="1" ht="42" customHeight="1">
       <c r="A10"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="J10" s="88" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="J10" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="88"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="35"/>
       <c r="M10" s="3"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" s="3"/>
       <c r="Q10"/>
-      <c r="R10" s="106"/>
+      <c r="R10" s="76"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="78"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="94"/>
     </row>
     <row r="11" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
       <c r="A11"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
       <c r="L11" s="64" t="s">
         <v>81</v>
       </c>
@@ -3157,21 +3156,21 @@
       </c>
       <c r="R11" s="43"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="94"/>
     </row>
     <row r="12" spans="1:21" s="19" customFormat="1" ht="29" customHeight="1">
       <c r="A12"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="J12" s="103" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="J12" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="103"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="62" t="s">
         <v>82</v>
       </c>
@@ -3183,21 +3182,21 @@
         <v>44</v>
       </c>
       <c r="S12" s="33"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="78"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="94"/>
     </row>
     <row r="13" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="J13" s="79" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="J13" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="79"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="63" t="s">
         <v>88</v>
       </c>
@@ -3209,17 +3208,17 @@
       </c>
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="78"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="94"/>
     </row>
     <row r="14" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A14"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -3227,23 +3226,23 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="107" t="s">
+      <c r="R14" s="77" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="104"/>
-      <c r="U14" s="78"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="94"/>
     </row>
     <row r="15" spans="1:21" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A15"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -3253,19 +3252,19 @@
       <c r="Q15" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="107"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="31"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="78"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="94"/>
     </row>
     <row r="16" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1">
       <c r="A16"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -3275,21 +3274,21 @@
       <c r="Q16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="108" t="s">
+      <c r="R16" s="78" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="31"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="78"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="94"/>
     </row>
     <row r="17" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A17"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -3297,19 +3296,19 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="Q17" s="23"/>
-      <c r="R17" s="108"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="78"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="94"/>
     </row>
     <row r="18" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
       <c r="A18"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -3319,19 +3318,19 @@
       <c r="Q18" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="108"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="31"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="78"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="94"/>
     </row>
     <row r="19" spans="1:21" s="19" customFormat="1" ht="16" customHeight="1">
       <c r="A19"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -3341,17 +3340,17 @@
       <c r="Q19"/>
       <c r="R19" s="43"/>
       <c r="S19" s="31"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="78"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="94"/>
     </row>
     <row r="20" spans="1:21" s="19" customFormat="1" ht="19" customHeight="1">
       <c r="A20"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -3363,17 +3362,17 @@
         <v>16</v>
       </c>
       <c r="S20" s="31"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="78"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="94"/>
     </row>
     <row r="21" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -3383,33 +3382,33 @@
       <c r="Q21"/>
       <c r="R21" s="44"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="78"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="94"/>
     </row>
     <row r="22" spans="1:21" s="19" customFormat="1">
       <c r="A22"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
       <c r="Q22" s="24" t="s">
         <v>52</v>
       </c>
       <c r="R22" s="43"/>
       <c r="S22" s="31"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="78"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="94"/>
     </row>
     <row r="23" spans="1:21" s="19" customFormat="1" ht="34" customHeight="1">
       <c r="A23"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="Q23" s="56" t="s">
         <v>77</v>
       </c>
@@ -3417,77 +3416,77 @@
         <v>15</v>
       </c>
       <c r="S23" s="31"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="78"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="94"/>
     </row>
     <row r="24" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="Q24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="31"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="78"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="94"/>
     </row>
     <row r="25" spans="1:21" s="19" customFormat="1" ht="8" customHeight="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
       <c r="R25" s="43"/>
       <c r="S25" s="43"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="78"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="94"/>
     </row>
     <row r="26" spans="1:21" s="19" customFormat="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="R26" s="41" t="s">
         <v>26</v>
       </c>
       <c r="S26" s="41"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="78"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="94"/>
     </row>
     <row r="27" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="42" t="s">
         <v>30</v>
       </c>
       <c r="S27" s="42"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="78"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="94"/>
     </row>
     <row r="28" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1" thickTop="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -3499,16 +3498,16 @@
       <c r="T28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="78"/>
+      <c r="U28" s="94"/>
     </row>
     <row r="29" spans="1:21" s="19" customFormat="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -3522,12 +3521,12 @@
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -3535,12 +3534,12 @@
     </row>
     <row r="31" spans="1:21" s="19" customFormat="1" ht="82" customHeight="1">
       <c r="A31"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3550,20 +3549,20 @@
     </row>
     <row r="32" spans="1:21" s="2" customFormat="1" ht="188" customHeight="1" thickBot="1">
       <c r="A32"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="91" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="91"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="93" t="s">
+      <c r="J32" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="93"/>
+      <c r="K32" s="81"/>
       <c r="L32" s="13" t="s">
         <v>33</v>
       </c>
@@ -3576,20 +3575,20 @@
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" ht="59" customHeight="1" thickTop="1">
       <c r="A33"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="98" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="98"/>
+      <c r="G33" s="87"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="92" t="s">
+      <c r="J33" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="92"/>
+      <c r="K33" s="105"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33"/>
@@ -3603,16 +3602,16 @@
       <c r="A34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
       <c r="H34"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
@@ -3624,22 +3623,22 @@
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="90"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35"/>
@@ -3653,18 +3652,18 @@
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="86"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -3676,16 +3675,16 @@
       <c r="A37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
@@ -3695,16 +3694,16 @@
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="82"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38"/>
@@ -3716,20 +3715,20 @@
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="85" t="s">
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="85"/>
+      <c r="G39" s="101"/>
       <c r="H39" s="17" t="s">
         <v>25</v>
       </c>
       <c r="I39" s="30"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39"/>
@@ -3741,18 +3740,18 @@
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="82"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="98"/>
       <c r="F40" s="20"/>
       <c r="G40" s="18"/>
       <c r="H40" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="30"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40"/>
@@ -3764,20 +3763,20 @@
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="86" t="s">
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="86"/>
+      <c r="G41" s="102"/>
       <c r="H41" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
       <c r="M41" s="19"/>
       <c r="N41"/>
       <c r="O41"/>
@@ -3788,18 +3787,18 @@
     </row>
     <row r="42" spans="1:19" s="19" customFormat="1" ht="19" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="88" t="s">
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="89"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
       <c r="L42" s="4" t="s">
         <v>34</v>
       </c>
@@ -3814,16 +3813,16 @@
       <c r="A43" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
       <c r="L43" s="4">
         <v>0</v>
       </c>
@@ -4462,20 +4461,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="T7:T27"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F2:G31"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J2:K4"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="J5:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="U7:U28"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="B1:E1"/>
@@ -4492,10 +4477,24 @@
     <mergeCell ref="F35:G37"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="J33:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F2:G31"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J2:K4"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="T7:T27"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="27" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4506,10 +4505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="35" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="103" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4517,25 +4516,23 @@
     <col min="1" max="1" width="18.6640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="16" style="19" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" style="19" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="18" style="19" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="15" style="52" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="52" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="52" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="19"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="53" t="s">
         <v>37</v>
       </c>
@@ -4543,83 +4540,83 @@
       <c r="E1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="112" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="79" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42" customHeight="1">
+    <row r="2" spans="1:15" ht="42" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="112"/>
-    </row>
-    <row r="3" spans="1:17" ht="25" customHeight="1">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="1:15" ht="25" customHeight="1">
       <c r="A3" s="58"/>
       <c r="B3" s="47"/>
       <c r="C3"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="118"/>
+      <c r="H3" s="115" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="32" customHeight="1">
+    <row r="4" spans="1:15" ht="32" customHeight="1">
       <c r="A4" s="58"/>
       <c r="B4" s="47"/>
       <c r="C4"/>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="113"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="115"/>
+      <c r="I4"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="19"/>
       <c r="M4" s="52"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="52"/>
-    </row>
-    <row r="5" spans="1:17" ht="32" customHeight="1">
+    </row>
+    <row r="5" spans="1:15" ht="32" customHeight="1">
       <c r="A5" s="58"/>
       <c r="B5" s="47"/>
       <c r="C5"/>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="113"/>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="115"/>
+      <c r="I5"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="19"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="52"/>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1">
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="102" customHeight="1">
       <c r="A6" s="58"/>
       <c r="B6" s="47"/>
       <c r="C6"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="H6" s="115"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -4627,18 +4624,17 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="102" customHeight="1">
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="102" customHeight="1">
       <c r="A7" s="58"/>
       <c r="B7" s="47"/>
       <c r="C7"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="113"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="115"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -4646,21 +4642,19 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="22" customHeight="1">
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="58"/>
       <c r="B8" s="47"/>
       <c r="C8"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="113"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="115"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -4668,66 +4662,62 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1">
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1">
       <c r="A9" s="58"/>
       <c r="B9" s="47"/>
       <c r="C9"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="113"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="115"/>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" ht="29" customHeight="1">
+    </row>
+    <row r="10" spans="1:15" ht="29" customHeight="1">
       <c r="A10" s="58"/>
       <c r="B10" s="47"/>
       <c r="C10"/>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="113"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="115"/>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" ht="101" customHeight="1">
+    </row>
+    <row r="11" spans="1:15" ht="101" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="47"/>
       <c r="C11"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="113"/>
+      <c r="H11" s="115"/>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" ht="55" customHeight="1">
+    </row>
+    <row r="12" spans="1:15" ht="29" customHeight="1">
       <c r="A12" s="58"/>
       <c r="B12" s="47"/>
       <c r="C12"/>
@@ -4737,39 +4727,37 @@
       <c r="F12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="113"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="115"/>
+      <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" ht="38" customHeight="1">
+    </row>
+    <row r="13" spans="1:15" ht="72" customHeight="1">
       <c r="A13" s="58"/>
       <c r="B13" s="47"/>
       <c r="C13"/>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="121"/>
-      <c r="H13" s="113"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="115"/>
+      <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    </row>
+    <row r="14" spans="1:15" ht="63" customHeight="1">
       <c r="A14" s="58"/>
       <c r="B14" s="47"/>
       <c r="C14"/>
@@ -4779,45 +4767,41 @@
       <c r="F14" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="110" t="s">
-        <v>67</v>
-      </c>
+      <c r="I14"/>
+      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" ht="97" customHeight="1">
+    </row>
+    <row r="15" spans="1:15" ht="74" customHeight="1">
       <c r="A15" s="58"/>
       <c r="B15" s="47"/>
       <c r="C15"/>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="120" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="117"/>
-      <c r="J15" s="110"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="109"/>
+      <c r="I15"/>
+      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" ht="34" customHeight="1">
+    </row>
+    <row r="16" spans="1:15" ht="50" customHeight="1">
       <c r="A16" s="58"/>
       <c r="B16" s="47"/>
       <c r="C16"/>
@@ -4827,588 +4811,540 @@
       <c r="F16" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="117"/>
-      <c r="J16" s="110"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="109"/>
+      <c r="I16"/>
+      <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" ht="19" customHeight="1">
+    </row>
+    <row r="17" spans="1:15" ht="51" customHeight="1">
       <c r="A17" s="58"/>
       <c r="B17" s="47"/>
       <c r="C17"/>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115" t="s">
+      <c r="G17" s="106"/>
+      <c r="H17" s="107" t="s">
         <v>94</v>
       </c>
+      <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    </row>
+    <row r="18" spans="1:15" ht="108" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="21"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
+      <c r="C18"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:15" ht="130" customHeight="1">
       <c r="A19" s="58"/>
       <c r="B19" s="47"/>
-      <c r="C19"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="J19" s="19"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" ht="34" customHeight="1">
+    </row>
+    <row r="20" spans="1:15" ht="106" customHeight="1">
       <c r="A20" s="58"/>
       <c r="B20" s="47"/>
-      <c r="C20"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="J20" s="19"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="1:15" ht="148" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="47"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115"/>
-      <c r="J21" s="19"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="J21"/>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17" ht="8" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="47"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
-      <c r="J22" s="19"/>
+    </row>
+    <row r="22" spans="1:15" ht="31" customHeight="1" thickBot="1">
+      <c r="A22" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="108"/>
+      <c r="C22" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
+      <c r="J22"/>
+      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="58"/>
-      <c r="B23" s="47"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
-      <c r="J23" s="19"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="47"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115"/>
-      <c r="J24" s="19"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="1:17" ht="17" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="47"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-      <c r="J25" s="19"/>
+    </row>
+    <row r="23" spans="1:15" ht="369" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="1:15" ht="16" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="107"/>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="65" customHeight="1">
+      <c r="A25" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="58"/>
-      <c r="B26" s="47"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="J26" s="16"/>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="37" customHeight="1">
+      <c r="A26" s="110"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="107"/>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" ht="44" customHeight="1" thickBot="1">
-      <c r="A27" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="95" customHeight="1">
+      <c r="A27" s="110"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="1:17" ht="82" customHeight="1">
-      <c r="A28" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="122"/>
-      <c r="C28"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="115"/>
+    </row>
+    <row r="28" spans="1:15" ht="117" customHeight="1">
+      <c r="A28" s="110"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="1:17" ht="311" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="59" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="29" spans="1:15" ht="11" customHeight="1">
+      <c r="A29" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29"/>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-    </row>
-    <row r="30" spans="1:17" ht="26" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="59"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1">
+      <c r="A30" s="104"/>
+      <c r="B30" s="111"/>
+      <c r="C30"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-    </row>
-    <row r="31" spans="1:17" s="3" customFormat="1" ht="100" customHeight="1">
-      <c r="A31" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="115"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="107"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:15" ht="33" customHeight="1">
+      <c r="A31" s="104"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" ht="37" customHeight="1">
-      <c r="A32" s="118"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
+    </row>
+    <row r="32" spans="1:15" ht="17" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="95" customHeight="1">
-      <c r="A33" s="118"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="59" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1">
+      <c r="A33" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="112"/>
+      <c r="C33" s="7"/>
       <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="107"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" ht="117" customHeight="1">
-      <c r="A34" s="118"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="17" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14" customHeight="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="7"/>
       <c r="D34"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="107"/>
+      <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15" ht="11" customHeight="1">
-      <c r="A35" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
+    </row>
+    <row r="35" spans="1:13" ht="16" customHeight="1">
+      <c r="A35" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" s="7"/>
+      <c r="D35"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
+      <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" ht="20" customHeight="1">
-      <c r="A36" s="90"/>
-      <c r="B36" s="119"/>
-      <c r="C36"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
+    </row>
+    <row r="36" spans="1:13" ht="19" customHeight="1">
+      <c r="A36" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="112"/>
+      <c r="C36" s="7"/>
+      <c r="D36"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="107"/>
+      <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15" ht="33" customHeight="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="17" t="s">
-        <v>95</v>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="115"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="107"/>
+      <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="1:15" ht="17" customHeight="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="115"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1">
-      <c r="A39" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="7"/>
-      <c r="D39"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="115"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:15" ht="14" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="123"/>
-      <c r="C40" s="7"/>
-      <c r="D40"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="115"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-    </row>
-    <row r="41" spans="1:15" ht="16" customHeight="1">
-      <c r="A41" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="7"/>
-      <c r="D41"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="115"/>
+    </row>
+    <row r="41" spans="1:13" ht="8" customHeight="1">
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-    </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1">
-      <c r="A42" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="7"/>
-      <c r="D42"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="115"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="1:15" ht="18" customHeight="1">
-      <c r="A43" s="88"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="115"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:13">
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
+      <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
+    </row>
+    <row r="45" spans="1:13" ht="18" customHeight="1">
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-    </row>
-    <row r="47" spans="1:15" ht="8" customHeight="1">
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
+    </row>
+    <row r="48" spans="1:13" ht="23" customHeight="1">
+      <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-    </row>
-    <row r="49" spans="6:15">
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
+    </row>
+    <row r="49" spans="1:12" ht="17" customHeight="1">
+      <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-    </row>
-    <row r="50" spans="6:15">
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-    </row>
-    <row r="51" spans="6:15" ht="18" customHeight="1">
+    </row>
+    <row r="51" spans="1:12">
+      <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-    </row>
-    <row r="52" spans="6:15">
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-    </row>
-    <row r="53" spans="6:15">
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-    </row>
-    <row r="54" spans="6:15" ht="23" customHeight="1">
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-    </row>
-    <row r="55" spans="6:15" ht="17" customHeight="1">
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="6:15">
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-    </row>
-    <row r="57" spans="6:15">
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-    </row>
-    <row r="70" spans="1:14">
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70"/>
       <c r="B70"/>
       <c r="D70"/>
@@ -5416,13 +5352,12 @@
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
+      <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71"/>
       <c r="B71"/>
       <c r="D71"/>
@@ -5430,13 +5365,12 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72"/>
       <c r="B72"/>
       <c r="D72"/>
@@ -5444,13 +5378,12 @@
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
+      <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="1:14">
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73"/>
       <c r="B73"/>
       <c r="D73"/>
@@ -5458,13 +5391,12 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
+      <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74"/>
       <c r="B74"/>
       <c r="D74"/>
@@ -5472,13 +5404,12 @@
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
+      <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75"/>
       <c r="B75"/>
       <c r="D75"/>
@@ -5486,13 +5417,12 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
+      <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76"/>
       <c r="B76"/>
       <c r="D76"/>
@@ -5500,13 +5430,12 @@
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
+      <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77"/>
       <c r="B77"/>
       <c r="D77"/>
@@ -5514,13 +5443,12 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
+      <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78"/>
       <c r="B78"/>
       <c r="D78"/>
@@ -5528,13 +5456,12 @@
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
+      <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-    </row>
-    <row r="79" spans="1:14">
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79"/>
       <c r="B79"/>
       <c r="D79"/>
@@ -5542,13 +5469,12 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
+      <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-    </row>
-    <row r="80" spans="1:14">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80"/>
       <c r="B80"/>
       <c r="D80"/>
@@ -5556,13 +5482,12 @@
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
+      <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-    </row>
-    <row r="81" spans="1:14">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81"/>
       <c r="B81"/>
       <c r="D81"/>
@@ -5570,13 +5495,12 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
+      <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-    </row>
-    <row r="82" spans="1:14">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82"/>
       <c r="B82"/>
       <c r="D82"/>
@@ -5584,13 +5508,12 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
+      <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-    </row>
-    <row r="83" spans="1:14">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83"/>
       <c r="B83"/>
       <c r="D83"/>
@@ -5598,13 +5521,12 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
+      <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-    </row>
-    <row r="84" spans="1:14">
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84"/>
       <c r="B84"/>
       <c r="D84"/>
@@ -5612,13 +5534,12 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
+      <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-    </row>
-    <row r="85" spans="1:14">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85"/>
       <c r="B85"/>
       <c r="D85"/>
@@ -5626,13 +5547,12 @@
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
+      <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-    </row>
-    <row r="86" spans="1:14">
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86"/>
       <c r="B86"/>
       <c r="D86"/>
@@ -5640,13 +5560,12 @@
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
+      <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14">
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87"/>
       <c r="B87"/>
       <c r="D87"/>
@@ -5654,13 +5573,12 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
+      <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-    </row>
-    <row r="88" spans="1:14">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88"/>
       <c r="B88"/>
       <c r="D88"/>
@@ -5668,13 +5586,12 @@
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
+      <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-    </row>
-    <row r="89" spans="1:14">
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89"/>
       <c r="B89"/>
       <c r="D89"/>
@@ -5682,13 +5599,12 @@
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
+      <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-    </row>
-    <row r="90" spans="1:14">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90"/>
       <c r="B90"/>
       <c r="D90"/>
@@ -5696,13 +5612,12 @@
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
+      <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91"/>
       <c r="B91"/>
       <c r="D91"/>
@@ -5710,13 +5625,12 @@
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
+      <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-    </row>
-    <row r="92" spans="1:14">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92"/>
       <c r="B92"/>
       <c r="D92"/>
@@ -5724,13 +5638,12 @@
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
+      <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93"/>
       <c r="B93"/>
       <c r="D93"/>
@@ -5738,13 +5651,12 @@
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
+      <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-    </row>
-    <row r="94" spans="1:14">
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94"/>
       <c r="B94"/>
       <c r="D94"/>
@@ -5752,13 +5664,12 @@
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
+      <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95"/>
       <c r="B95"/>
       <c r="D95"/>
@@ -5766,13 +5677,12 @@
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
+      <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-    </row>
-    <row r="96" spans="1:14">
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96"/>
       <c r="B96"/>
       <c r="D96"/>
@@ -5780,13 +5690,12 @@
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
+      <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-    </row>
-    <row r="97" spans="1:14">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97"/>
       <c r="B97"/>
       <c r="D97"/>
@@ -5794,109 +5703,18 @@
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
+      <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
+    </row>
+    <row r="148" spans="3:3" ht="17">
+      <c r="C148" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="F17:G43"/>
-    <mergeCell ref="H17:H43"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="J14:J16"/>
+  <mergeCells count="18">
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G2"/>
@@ -5905,10 +5723,20 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F17:G37"/>
+    <mergeCell ref="H17:H37"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/内存分布.xlsx
+++ b/files/内存分布.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libinyl/Documents/GitHub/6828/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C4D302-40D4-754E-8FC9-D5F23204AC91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E0B47-5272-2647-AA6E-C30D32391FF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{31FFD905-892E-7D47-A442-CC69616C68DF}"/>
   </bookViews>
   <sheets>
     <sheet name="lab 1" sheetId="1" r:id="rId1"/>
     <sheet name="lab 2" sheetId="10" r:id="rId2"/>
+    <sheet name="lab 3" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'lab 1'!$A$1:$V$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'lab 2'!$A$2:$M$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'lab 2'!$A$2:$M$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'lab 3'!$A$2:$M$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="120">
   <si>
     <t>0xFFFFFFFF (4GB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,23 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">UVPT  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0xef400000)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内核向用户暴露的数据结构,每段都是 PTSIZE 4MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,10 +771,6 @@
   </si>
   <si>
     <t>C boot loader stack↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,12 +924,231 @@
     <t>˛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PADDR(kern_pgdir)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PADDR(UENV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0000000(3840MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UVPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0xef400000)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> env </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的此部分都相同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kernel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+PGSIZE/sizeof(int)
+=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4096Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/4
+=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1024entry</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Remapped Physical Memory，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4KB aligned</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      (ph pages info) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO PAGES U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO ENVS U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env_pgdir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UENVS, UTOP, USTACKTOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1083,6 +1283,18 @@
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1280,7 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,7 +1589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,9 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1587,149 +1796,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,6 +1824,186 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2332,8 +2583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6694938" y="9376447"/>
-          <a:ext cx="11147780" cy="7306022"/>
+          <a:off x="6723477" y="9376976"/>
+          <a:ext cx="11456076" cy="6980286"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2368,18 +2619,18 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2631765</xdr:colOff>
+      <xdr:colOff>2607733</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>505534</xdr:rowOff>
+      <xdr:rowOff>508000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>20484</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>51539</xdr:rowOff>
+      <xdr:colOff>6658</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2394,12 +2645,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-2978188" y="8951410"/>
-          <a:ext cx="21752509" cy="5255321"/>
+          <a:off x="-2108203" y="8068736"/>
+          <a:ext cx="19981333" cy="5266262"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 323772"/>
+            <a:gd name="adj" fmla="val 287170"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2439,18 +2690,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2641599</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>327740</xdr:rowOff>
+      <xdr:rowOff>327739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9011</xdr:colOff>
+      <xdr:colOff>9010</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>49319</xdr:rowOff>
+      <xdr:rowOff>660400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2465,12 +2716,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-1958566" y="12680578"/>
-          <a:ext cx="19708667" cy="5236972"/>
+          <a:off x="-1220159" y="11995764"/>
+          <a:ext cx="18248127" cy="5241411"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 352524"/>
+            <a:gd name="adj" fmla="val 337405"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2510,18 +2761,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2638640</xdr:colOff>
+      <xdr:colOff>2641599</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>797280</xdr:rowOff>
+      <xdr:rowOff>729548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>20483</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>77758</xdr:rowOff>
+      <xdr:colOff>20482</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2536,18 +2787,518 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="573449" y="13552665"/>
-          <a:ext cx="14656109" cy="5248445"/>
+          <a:off x="1052348" y="12614266"/>
+          <a:ext cx="13714586" cy="5252883"/>
         </a:xfrm>
         <a:prstGeom prst="parallelogram">
           <a:avLst>
-            <a:gd name="adj" fmla="val 262642"/>
+            <a:gd name="adj" fmla="val 241059"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent1">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2607733</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>903470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9009</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="平行四边形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A36223A-2B35-9449-B22D-120089954CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2318906" y="10573364"/>
+          <a:ext cx="11136129" cy="5275276"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 194665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2641599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50798</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="平行四边形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF518152-6EE2-0D41-A4DE-9606BD3B3704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1092199" y="13605933"/>
+          <a:ext cx="13665199" cy="5283199"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 241389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2607733</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6658</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="平行四边形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B464336F-CBD1-B04F-9E09-34A271EDD714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-2079471" y="8040004"/>
+          <a:ext cx="19930533" cy="5272925"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 287170"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2641599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>317579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9010</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>314960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="平行四边形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A5300F-506B-DA4B-AA90-6F88837AD422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-1209576" y="11938614"/>
+          <a:ext cx="18226961" cy="5241411"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 337405"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2641599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>282508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20482</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>355601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="平行四边形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15663151-7DA6-B743-BDE6-C6F53A18B9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1054464" y="12552883"/>
+          <a:ext cx="13710353" cy="5252883"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 241059"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2607733</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>344670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9009</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>372533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="平行四边形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6908DECF-8D79-3442-88D0-BACA848DE2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2316789" y="10516214"/>
+          <a:ext cx="11140363" cy="5275276"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 194665"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2641599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50798</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>362372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="平行四边形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5880F9-E1A6-574F-87B6-C8BDEC807871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1095163" y="13547936"/>
+          <a:ext cx="13659272" cy="5283199"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 241389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -2886,8 +3637,8 @@
   </sheetPr>
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="51" zoomScaleNormal="229" workbookViewId="0">
-      <selection sqref="A1:V47"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2923,19 +3674,19 @@
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
       <c r="E1" s="97"/>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="53" t="s">
+      <c r="K1" s="103"/>
+      <c r="L1" s="52" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2947,12 +3698,12 @@
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="98"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="J2" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="85"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="J2" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="7"/>
@@ -2960,12 +3711,12 @@
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
       <c r="E3" s="98"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
       <c r="L3"/>
       <c r="M3" s="7"/>
       <c r="N3"/>
@@ -2979,14 +3730,14 @@
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="98"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" s="84"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="112"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="Q4" s="12"/>
@@ -2998,12 +3749,12 @@
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="J5" s="89" t="s">
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="J5" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="89"/>
+      <c r="K5" s="116"/>
       <c r="L5"/>
       <c r="M5" s="32"/>
       <c r="N5"/>
@@ -3016,15 +3767,15 @@
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R6" s="28" t="s">
         <v>32</v>
@@ -3041,10 +3792,10 @@
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
       <c r="M7" s="3"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -3054,11 +3805,11 @@
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
-      <c r="T7" s="74" t="s">
-        <v>80</v>
+      <c r="T7" s="120" t="s">
+        <v>79</v>
       </c>
       <c r="U7" s="94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
@@ -3067,23 +3818,23 @@
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
       <c r="E8" s="98"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="J8" s="91" t="s">
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="J8" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="91"/>
+      <c r="K8" s="118"/>
       <c r="M8" s="3"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8" s="3"/>
-      <c r="R8" s="76" t="s">
+      <c r="R8" s="122" t="s">
         <v>43</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="74"/>
+      <c r="T8" s="120"/>
       <c r="U8" s="94"/>
     </row>
     <row r="9" spans="1:21" s="19" customFormat="1" ht="51" customHeight="1">
@@ -3092,23 +3843,23 @@
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
       <c r="J9" s="40"/>
       <c r="K9" s="39" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3"/>
       <c r="Q9"/>
-      <c r="R9" s="76"/>
+      <c r="R9" s="122"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="74"/>
+      <c r="T9" s="120"/>
       <c r="U9" s="94"/>
     </row>
     <row r="10" spans="1:21" s="19" customFormat="1" ht="42" customHeight="1">
@@ -3117,21 +3868,21 @@
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="J10" s="92" t="s">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="J10" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="92"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="35"/>
       <c r="M10" s="3"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" s="3"/>
       <c r="Q10"/>
-      <c r="R10" s="76"/>
+      <c r="R10" s="122"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="74"/>
+      <c r="T10" s="120"/>
       <c r="U10" s="94"/>
     </row>
     <row r="11" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
@@ -3140,12 +3891,12 @@
       <c r="C11" s="98"/>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="64" t="s">
-        <v>81</v>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11"/>
@@ -3156,7 +3907,7 @@
       </c>
       <c r="R11" s="43"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="74"/>
+      <c r="T11" s="120"/>
       <c r="U11" s="94"/>
     </row>
     <row r="12" spans="1:21" s="19" customFormat="1" ht="29" customHeight="1">
@@ -3165,14 +3916,14 @@
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="J12" s="93" t="s">
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="J12" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="62" t="s">
-        <v>82</v>
+      <c r="K12" s="119"/>
+      <c r="L12" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12"/>
@@ -3182,7 +3933,7 @@
         <v>44</v>
       </c>
       <c r="S12" s="33"/>
-      <c r="T12" s="74"/>
+      <c r="T12" s="120"/>
       <c r="U12" s="94"/>
     </row>
     <row r="13" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1" thickBot="1">
@@ -3191,24 +3942,24 @@
       <c r="C13" s="98"/>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
       <c r="J13" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K13" s="95"/>
-      <c r="L13" s="63" t="s">
-        <v>88</v>
+      <c r="L13" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="Q13" s="54" t="s">
+      <c r="Q13" s="53" t="s">
         <v>56</v>
       </c>
       <c r="R13" s="43"/>
       <c r="S13" s="43"/>
-      <c r="T13" s="74"/>
+      <c r="T13" s="120"/>
       <c r="U13" s="94"/>
     </row>
     <row r="14" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
@@ -3217,8 +3968,8 @@
       <c r="C14" s="98"/>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -3226,13 +3977,13 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="77" t="s">
+      <c r="R14" s="123" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="74"/>
+      <c r="T14" s="120"/>
       <c r="U14" s="94"/>
     </row>
     <row r="15" spans="1:21" s="19" customFormat="1" ht="33" customHeight="1">
@@ -3241,20 +3992,20 @@
       <c r="C15" s="98"/>
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" s="12"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="Q15" s="54" t="s">
+      <c r="Q15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="77"/>
+      <c r="R15" s="123"/>
       <c r="S15" s="31"/>
-      <c r="T15" s="74"/>
+      <c r="T15" s="120"/>
       <c r="U15" s="94"/>
     </row>
     <row r="16" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1">
@@ -3263,22 +4014,22 @@
       <c r="C16" s="98"/>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" s="12"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="Q16" s="55" t="s">
+      <c r="Q16" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="78" t="s">
+      <c r="R16" s="124" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="31"/>
-      <c r="T16" s="74"/>
+      <c r="T16" s="120"/>
       <c r="U16" s="94"/>
     </row>
     <row r="17" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
@@ -3287,8 +4038,8 @@
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -3296,9 +4047,9 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="Q17" s="23"/>
-      <c r="R17" s="78"/>
+      <c r="R17" s="124"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="74"/>
+      <c r="T17" s="120"/>
       <c r="U17" s="94"/>
     </row>
     <row r="18" spans="1:21" s="19" customFormat="1" ht="14" customHeight="1">
@@ -3307,20 +4058,20 @@
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" s="30"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="Q18" s="54" t="s">
+      <c r="Q18" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="124"/>
       <c r="S18" s="31"/>
-      <c r="T18" s="74"/>
+      <c r="T18" s="120"/>
       <c r="U18" s="94"/>
     </row>
     <row r="19" spans="1:21" s="19" customFormat="1" ht="16" customHeight="1">
@@ -3329,8 +4080,8 @@
       <c r="C19" s="98"/>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -3340,7 +4091,7 @@
       <c r="Q19"/>
       <c r="R19" s="43"/>
       <c r="S19" s="31"/>
-      <c r="T19" s="74"/>
+      <c r="T19" s="120"/>
       <c r="U19" s="94"/>
     </row>
     <row r="20" spans="1:21" s="19" customFormat="1" ht="19" customHeight="1">
@@ -3349,8 +4100,8 @@
       <c r="C20" s="98"/>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -3362,7 +4113,7 @@
         <v>16</v>
       </c>
       <c r="S20" s="31"/>
-      <c r="T20" s="74"/>
+      <c r="T20" s="120"/>
       <c r="U20" s="94"/>
     </row>
     <row r="21" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1">
@@ -3371,8 +4122,8 @@
       <c r="C21" s="98"/>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -3382,7 +4133,7 @@
       <c r="Q21"/>
       <c r="R21" s="44"/>
       <c r="S21" s="31"/>
-      <c r="T21" s="74"/>
+      <c r="T21" s="120"/>
       <c r="U21" s="94"/>
     </row>
     <row r="22" spans="1:21" s="19" customFormat="1">
@@ -3391,14 +4142,14 @@
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
       <c r="Q22" s="24" t="s">
         <v>52</v>
       </c>
       <c r="R22" s="43"/>
       <c r="S22" s="31"/>
-      <c r="T22" s="74"/>
+      <c r="T22" s="120"/>
       <c r="U22" s="94"/>
     </row>
     <row r="23" spans="1:21" s="19" customFormat="1" ht="34" customHeight="1">
@@ -3407,16 +4158,16 @@
       <c r="C23" s="98"/>
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="Q23" s="56" t="s">
-        <v>77</v>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="Q23" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="R23" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S23" s="31"/>
-      <c r="T23" s="74"/>
+      <c r="T23" s="120"/>
       <c r="U23" s="94"/>
     </row>
     <row r="24" spans="1:21" s="19" customFormat="1" ht="20" customHeight="1">
@@ -3425,14 +4176,14 @@
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
       <c r="Q24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="31"/>
-      <c r="T24" s="74"/>
+      <c r="T24" s="120"/>
       <c r="U24" s="94"/>
     </row>
     <row r="25" spans="1:21" s="19" customFormat="1" ht="8" customHeight="1">
@@ -3441,11 +4192,11 @@
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
       <c r="R25" s="43"/>
       <c r="S25" s="43"/>
-      <c r="T25" s="74"/>
+      <c r="T25" s="120"/>
       <c r="U25" s="94"/>
     </row>
     <row r="26" spans="1:21" s="19" customFormat="1">
@@ -3454,13 +4205,13 @@
       <c r="C26" s="98"/>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
       <c r="R26" s="41" t="s">
         <v>26</v>
       </c>
       <c r="S26" s="41"/>
-      <c r="T26" s="74"/>
+      <c r="T26" s="120"/>
       <c r="U26" s="94"/>
     </row>
     <row r="27" spans="1:21" s="19" customFormat="1" ht="18" customHeight="1" thickBot="1">
@@ -3469,14 +4220,14 @@
       <c r="C27" s="98"/>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="42" t="s">
         <v>30</v>
       </c>
       <c r="S27" s="42"/>
-      <c r="T27" s="75"/>
+      <c r="T27" s="121"/>
       <c r="U27" s="94"/>
     </row>
     <row r="28" spans="1:21" s="19" customFormat="1" ht="17" customHeight="1" thickTop="1">
@@ -3485,8 +4236,8 @@
       <c r="C28" s="98"/>
       <c r="D28" s="98"/>
       <c r="E28" s="98"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -3506,8 +4257,8 @@
       <c r="C29" s="98"/>
       <c r="D29" s="98"/>
       <c r="E29" s="98"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -3515,7 +4266,7 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" s="51"/>
+      <c r="R29" s="50"/>
     </row>
     <row r="30" spans="1:21" ht="44" customHeight="1">
       <c r="A30" s="9" t="s">
@@ -3525,8 +4276,8 @@
       <c r="C30" s="98"/>
       <c r="D30" s="98"/>
       <c r="E30" s="98"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -3538,8 +4289,8 @@
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
       <c r="E31" s="98"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3553,16 +4304,16 @@
       <c r="C32" s="98"/>
       <c r="D32" s="98"/>
       <c r="E32" s="98"/>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="86"/>
+      <c r="G32" s="107"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="81" t="s">
+      <c r="J32" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="81"/>
+      <c r="K32" s="109"/>
       <c r="L32" s="13" t="s">
         <v>33</v>
       </c>
@@ -3579,16 +4330,16 @@
       <c r="C33" s="98"/>
       <c r="D33" s="98"/>
       <c r="E33" s="98"/>
-      <c r="F33" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="87"/>
+      <c r="F33" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="114"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="105" t="s">
+      <c r="J33" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="105"/>
+      <c r="K33" s="108"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33"/>
@@ -3606,12 +4357,12 @@
       <c r="C34" s="98"/>
       <c r="D34" s="98"/>
       <c r="E34" s="98"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
       <c r="H34"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
@@ -3631,14 +4382,14 @@
       <c r="E35" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="104"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35"/>
@@ -3658,12 +4409,12 @@
         <v>6</v>
       </c>
       <c r="E36" s="98"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -3679,12 +4430,12 @@
       <c r="C37" s="101"/>
       <c r="D37" s="100"/>
       <c r="E37" s="98"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
@@ -3702,8 +4453,8 @@
       <c r="G38" s="20"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38"/>
@@ -3727,8 +4478,8 @@
         <v>25</v>
       </c>
       <c r="I39" s="30"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39"/>
@@ -3750,8 +4501,8 @@
         <v>21</v>
       </c>
       <c r="I40" s="30"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40"/>
@@ -3775,8 +4526,8 @@
         <v>11</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
       <c r="M41" s="19"/>
       <c r="N41"/>
       <c r="O41"/>
@@ -3791,14 +4542,14 @@
       <c r="C42" s="99"/>
       <c r="D42" s="100"/>
       <c r="E42" s="98"/>
-      <c r="F42" s="92" t="s">
+      <c r="F42" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="103"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="4" t="s">
         <v>34</v>
       </c>
@@ -3817,12 +4568,12 @@
       <c r="C43" s="99"/>
       <c r="D43" s="100"/>
       <c r="E43" s="98"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="4">
         <v>0</v>
       </c>
@@ -4461,6 +5212,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="T7:T27"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F2:G31"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J2:K4"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="J5:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="U7:U28"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="B1:E1"/>
@@ -4477,20 +5242,6 @@
     <mergeCell ref="F35:G37"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="J33:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F2:G31"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J2:K4"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="J5:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="T7:T27"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4505,10 +5256,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="103" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="75" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4519,104 +5270,104 @@
     <col min="4" max="4" width="68.6640625" style="19" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="18" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="52" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="51" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" style="52" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="51" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="53" t="s">
+      <c r="A1" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="42" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:15" ht="25" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="47"/>
       <c r="C3"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="115" t="s">
-        <v>93</v>
+      <c r="F3" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="127" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="32" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="47"/>
       <c r="C4"/>
-      <c r="E4" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="115"/>
+      <c r="E4" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="127"/>
       <c r="I4"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="52"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="52"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:15" ht="32" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="47"/>
       <c r="C5"/>
-      <c r="E5" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="115"/>
+      <c r="E5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="127"/>
       <c r="I5"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="52"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="52"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="102" customHeight="1">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="47"/>
       <c r="C6"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="66" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="115"/>
+      <c r="H6" s="127"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -4626,15 +5377,15 @@
       <c r="O6"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="102" customHeight="1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="47"/>
       <c r="C7"/>
-      <c r="E7" s="73"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="115"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="127"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -4644,17 +5395,17 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="47"/>
       <c r="C8"/>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="115"/>
+      <c r="F8" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="127"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -4664,13 +5415,13 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="47"/>
       <c r="C9"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="115"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="127"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -4680,15 +5431,15 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="29" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="47"/>
       <c r="C10"/>
-      <c r="E10" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="127"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -4697,18 +5448,17 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="101" customHeight="1">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:15" ht="37" customHeight="1">
+      <c r="A11" s="57"/>
       <c r="B11" s="47"/>
-      <c r="C11"/>
-      <c r="E11" s="122"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="116" t="s">
+      <c r="G11" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="115"/>
+      <c r="H11" s="127"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -4717,8 +5467,8 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="29" customHeight="1">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:15" ht="57" customHeight="1">
+      <c r="A12" s="57"/>
       <c r="B12" s="47"/>
       <c r="C12"/>
       <c r="E12" s="5" t="s">
@@ -4727,8 +5477,8 @@
       <c r="F12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="115"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="127"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -4738,17 +5488,17 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" ht="72" customHeight="1">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="47"/>
       <c r="C13"/>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="115"/>
+      <c r="F13" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="129"/>
+      <c r="H13" s="127"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -4758,20 +5508,20 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" ht="63" customHeight="1">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="47"/>
       <c r="C14"/>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="109" t="s">
-        <v>100</v>
+      <c r="H14" s="134" t="s">
+        <v>98</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -4781,18 +5531,18 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="74" customHeight="1">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:15" ht="76" customHeight="1">
+      <c r="A15" s="57"/>
       <c r="B15" s="47"/>
       <c r="C15"/>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="73" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="109"/>
+        <v>68</v>
+      </c>
+      <c r="G15" s="138"/>
+      <c r="H15" s="134"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -4801,18 +5551,18 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="50" customHeight="1">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:15" ht="78" customHeight="1">
+      <c r="A16" s="57"/>
       <c r="B16" s="47"/>
       <c r="C16"/>
-      <c r="E16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="109"/>
+      <c r="E16" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="138"/>
+      <c r="H16" s="134"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -4822,15 +5572,15 @@
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15" ht="51" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="47"/>
       <c r="C17"/>
-      <c r="F17" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107" t="s">
-        <v>94</v>
+      <c r="F17" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132" t="s">
+        <v>92</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -4841,12 +5591,12 @@
       <c r="O17"/>
     </row>
     <row r="18" spans="1:15" ht="108" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="47"/>
       <c r="C18"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -4855,11 +5605,11 @@
       <c r="O18"/>
     </row>
     <row r="19" spans="1:15" ht="130" customHeight="1">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="47"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="132"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -4867,12 +5617,12 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="106" customHeight="1">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:15" ht="79" customHeight="1">
+      <c r="A20" s="57"/>
       <c r="B20" s="47"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="132"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -4880,12 +5630,17 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="148" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="47"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
+    <row r="21" spans="1:15" ht="59" customHeight="1" thickBot="1">
+      <c r="A21" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -4893,17 +5648,13 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="31" customHeight="1" thickBot="1">
-      <c r="A22" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="107"/>
+    <row r="22" spans="1:15" ht="163" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -4911,251 +5662,258 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="369" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="127" t="s">
+    <row r="23" spans="1:15" ht="68" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" ht="151" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
-    </row>
-    <row r="24" spans="1:15" ht="16" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
-    </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="65" customHeight="1">
-      <c r="A25" s="110" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+    </row>
+    <row r="25" spans="1:15" ht="25" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="132"/>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="86" customHeight="1">
+      <c r="A26" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="37" customHeight="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
+        <v>97</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="132"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="95" customHeight="1">
-      <c r="A27" s="110"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="121" t="s">
-        <v>106</v>
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="77" customHeight="1">
+      <c r="A27" s="135"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="90" t="s">
+        <v>107</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="132"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:15" ht="117" customHeight="1">
-      <c r="A28" s="110"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="17" t="s">
-        <v>39</v>
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="55" customHeight="1">
+      <c r="A28" s="135"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="D28"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="107"/>
+      <c r="E28"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="132"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:15" ht="11" customHeight="1">
-      <c r="A29" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
+    <row r="29" spans="1:15" ht="117" customHeight="1">
+      <c r="A29" s="135"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="132"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:15" ht="20" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="111"/>
+    <row r="30" spans="1:15" ht="11" customHeight="1">
+      <c r="A30" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="136" t="s">
+        <v>85</v>
+      </c>
       <c r="C30"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="107"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="132"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:15" ht="33" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
+    <row r="31" spans="1:15" ht="20" customHeight="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="136"/>
+      <c r="C31"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="132"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:15" ht="17" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="107"/>
+    <row r="32" spans="1:15" ht="33" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="132"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1">
-      <c r="A33" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="112"/>
+    <row r="33" spans="1:13" ht="17" customHeight="1">
+      <c r="A33" s="59"/>
+      <c r="B33" s="137" t="s">
+        <v>84</v>
+      </c>
       <c r="C33" s="7"/>
-      <c r="D33"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="107"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="132"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" ht="14" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="112"/>
+    <row r="34" spans="1:13" ht="18" customHeight="1">
+      <c r="A34" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="137"/>
       <c r="C34" s="7"/>
       <c r="D34"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="107"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="132"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1">
-      <c r="A35" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="112"/>
+    <row r="35" spans="1:13" ht="14" customHeight="1">
+      <c r="A35" s="59"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="7"/>
       <c r="D35"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="107"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" ht="19" customHeight="1">
-      <c r="A36" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="112"/>
+    <row r="36" spans="1:13" ht="16" customHeight="1">
+      <c r="A36" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="137"/>
       <c r="C36" s="7"/>
       <c r="D36"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="107"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="132"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1">
-      <c r="A37" s="92"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="107"/>
+    <row r="37" spans="1:13" ht="19" customHeight="1">
+      <c r="A37" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="7"/>
+      <c r="D37"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="132"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
+    <row r="38" spans="1:13" ht="18" customHeight="1">
+      <c r="A38" s="104"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="132"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -5182,7 +5940,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" ht="8" customHeight="1">
+    <row r="41" spans="1:13">
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -5192,7 +5950,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="8" customHeight="1">
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
@@ -5222,14 +5980,17 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1">
+    <row r="45" spans="1:13">
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="18" customHeight="1">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5241,43 +6002,37 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-    </row>
-    <row r="48" spans="1:13" ht="23" customHeight="1">
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="17" customHeight="1">
+    <row r="49" spans="9:12" ht="23" customHeight="1">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="9:12" ht="17" customHeight="1">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="9:12">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
+    <row r="52" spans="9:12">
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65"/>
@@ -5708,13 +6463,35 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="148" spans="3:3" ht="17">
-      <c r="C148" s="10" t="s">
-        <v>107</v>
+    <row r="98" spans="1:12">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+    </row>
+    <row r="149" spans="3:3" ht="17">
+      <c r="C149" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="F17:G38"/>
+    <mergeCell ref="H17:H38"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B33:B38"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G2"/>
@@ -5723,16 +6500,1288 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F17:G37"/>
-    <mergeCell ref="H17:H37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5B54A-9933-3D4A-8030-0261DF0DDAFF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O150"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="19" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="84" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="125" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="42" customHeight="1">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+    </row>
+    <row r="3" spans="1:15" ht="25" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="85"/>
+      <c r="C3"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="130"/>
+      <c r="H3" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="32" customHeight="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="85"/>
+      <c r="C4"/>
+      <c r="E4" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="84"/>
+    </row>
+    <row r="5" spans="1:15" ht="32" customHeight="1">
+      <c r="A5" s="57"/>
+      <c r="B5" s="85"/>
+      <c r="C5"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="1:15" ht="57" customHeight="1">
+      <c r="A6" s="57"/>
+      <c r="B6" s="85"/>
+      <c r="C6"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="84"/>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="47" customHeight="1">
+      <c r="A7" s="57"/>
+      <c r="B7" s="85"/>
+      <c r="C7"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="127"/>
+      <c r="I7" s="140"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="73" customHeight="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="85"/>
+      <c r="C8"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="22" customHeight="1">
+      <c r="A9" s="57"/>
+      <c r="B9" s="85"/>
+      <c r="C9"/>
+      <c r="E9" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="85"/>
+      <c r="C10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" ht="29" customHeight="1">
+      <c r="A11" s="57"/>
+      <c r="B11" s="85"/>
+      <c r="C11"/>
+      <c r="E11" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" ht="37" customHeight="1">
+      <c r="A12" s="57"/>
+      <c r="B12" s="85"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" ht="57" customHeight="1">
+      <c r="A13" s="57"/>
+      <c r="B13" s="85"/>
+      <c r="C13"/>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" ht="72" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="85"/>
+      <c r="C14"/>
+      <c r="E14" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" ht="63" customHeight="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="85"/>
+      <c r="C15"/>
+      <c r="E15" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="140"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" ht="76" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="85"/>
+      <c r="C16"/>
+      <c r="E16" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="138"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="140"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" ht="78" customHeight="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="85"/>
+      <c r="C17"/>
+      <c r="E17" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="138"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="140"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" ht="51" customHeight="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="85"/>
+      <c r="C18"/>
+      <c r="F18" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="141"/>
+      <c r="H18" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" ht="108" customHeight="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="85"/>
+      <c r="C19"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" ht="130" customHeight="1">
+      <c r="A20" s="57"/>
+      <c r="B20" s="85"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15" ht="79" customHeight="1">
+      <c r="A21" s="57"/>
+      <c r="B21" s="85"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15" ht="59" customHeight="1" thickBot="1">
+      <c r="A22" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="133"/>
+      <c r="C22" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15" ht="163" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" ht="68" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" ht="151" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+    </row>
+    <row r="26" spans="1:15" ht="25" customHeight="1">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="86" customHeight="1">
+      <c r="A27" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="77" customHeight="1">
+      <c r="A28" s="135"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:15" s="3" customFormat="1" ht="55" customHeight="1">
+      <c r="A29" s="135"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:15" ht="117" customHeight="1">
+      <c r="A30" s="135"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:15" ht="11" customHeight="1">
+      <c r="A31" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="136"/>
+      <c r="C32"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13" ht="33" customHeight="1">
+      <c r="A33" s="106"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13" ht="17" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1">
+      <c r="A35" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="137"/>
+      <c r="C35" s="7"/>
+      <c r="D35"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13" ht="14" customHeight="1">
+      <c r="A36" s="59"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="7"/>
+      <c r="D36"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13" ht="16" customHeight="1">
+      <c r="A37" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="7"/>
+      <c r="D37"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13" ht="19" customHeight="1">
+      <c r="A38" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="137"/>
+      <c r="C38" s="7"/>
+      <c r="D38"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1">
+      <c r="A39" s="104"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13" ht="8" customHeight="1">
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:13" ht="18" customHeight="1">
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="10:12">
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="10:12" ht="23" customHeight="1">
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="10:12" ht="17" customHeight="1">
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="10:12">
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="10:12">
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+    </row>
+    <row r="150" spans="3:3" ht="17">
+      <c r="C150" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I18:I39"/>
+    <mergeCell ref="I3:I17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
